--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_18_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_18_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>807699.6164532916</v>
+        <v>801654.341614568</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10719269.75998488</v>
+        <v>10719269.75998489</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6071859.441074554</v>
+        <v>6071859.441074553</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>35.58099710554268</v>
+        <v>51.50881322116569</v>
       </c>
       <c r="H11" t="n">
-        <v>298.5829100630798</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>53.16006395033764</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>253.0213226369596</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>335.8151578977946</v>
       </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>335.8151578977946</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>128.7880777047345</v>
@@ -1460,16 +1460,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>117.6962971812177</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>76.18305849007386</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>8.854161465986806</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,22 +1499,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>55.54523638783208</v>
       </c>
       <c r="T12" t="n">
-        <v>49.07921503103093</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>207.8860038244843</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>177.5210747552478</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>60.89934176129167</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>78.82444768843244</v>
+        <v>78.82444768843243</v>
       </c>
       <c r="S13" t="n">
         <v>183.7971125400421</v>
       </c>
       <c r="T13" t="n">
-        <v>229.1961435740429</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5312244651214</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>265.5629847747383</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>333.0182389110921</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>335.8151578977946</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>335.8151578977946</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>298.5829100630798</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>295.7859910763773</v>
       </c>
     </row>
     <row r="15">
@@ -1688,25 +1688,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>123.1874880556995</v>
+        <v>11.24652125257295</v>
       </c>
       <c r="G15" t="n">
-        <v>117.6962971812177</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>76.18305849007386</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>8.854161465986806</v>
+        <v>8.854161465986799</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>170.5265796494932</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>207.8860038244843</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
-        <v>49.07921503103093</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>177.5210747552478</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5965581459434</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>145.2555273384648</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>102.4439188072657</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>100.2499745184416</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5312244651214</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>74.24377379397154</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>295.7859910763773</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>51.50881322116557</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>115.319892856474</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>211.7511202595727</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.0213226369596</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>335.8151578977946</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="W17" t="n">
-        <v>335.8151578977946</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,22 +1925,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>66.71079091316429</v>
       </c>
       <c r="H18" t="n">
-        <v>76.18305849007386</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>8.854161465986799</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>111.9805936890401</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>170.5265796494932</v>
@@ -1988,10 +1988,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X18" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>92.25638575650487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>24.10845993664902</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>183.7971125400421</v>
+        <v>24.2631309627516</v>
       </c>
       <c r="T19" t="n">
-        <v>229.1961435740429</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>282.5312244651214</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>335.8151578977946</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>335.8151578977946</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>164.5382821042804</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="H20" t="n">
         <v>298.5829100630798</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>53.16006395033763</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>115.319892856474</v>
       </c>
       <c r="T20" t="n">
-        <v>211.7511202595727</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>121.2671186515194</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>128.7880777047345</v>
@@ -2177,10 +2177,10 @@
         <v>117.6962971812177</v>
       </c>
       <c r="H21" t="n">
-        <v>56.5787326755976</v>
+        <v>76.18305849007386</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>8.854161465986799</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>111.9805936890401</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>170.5265796494932</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>15.70310227175988</v>
       </c>
       <c r="W21" t="n">
         <v>227.816073408046</v>
@@ -2228,7 +2228,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y21" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>45.82820587900306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>145.2555273384648</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>102.4439188072657</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5312244651214</v>
+        <v>214.2781322288921</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>335.8151578977946</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>295.7859910763773</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="W23" t="n">
-        <v>295.7859910763774</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>335.8151578977946</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>335.8151578977946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,13 +2399,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C24" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>123.1874880556995</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>8.854161465986799</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>60.81415556782029</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>170.5265796494932</v>
@@ -2456,13 +2456,13 @@
         <v>207.8860038244843</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>57.24917743616538</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y24" t="n">
         <v>177.5210747552478</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0.706994480085342</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5965581459434</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.2555273384648</v>
       </c>
       <c r="I25" t="n">
-        <v>4.037277285647862</v>
+        <v>102.4439188072657</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>78.82444768843243</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>183.7971125400421</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5312244651214</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.8151578977946</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>335.8151578977946</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>211.7511202595727</v>
       </c>
       <c r="U26" t="n">
         <v>253.0213226369596</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>335.8151578977946</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="Y26" t="n">
-        <v>42.7646684394179</v>
+        <v>166.8287060776394</v>
       </c>
     </row>
     <row r="27">
@@ -2639,10 +2639,10 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D27" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>123.1874880556995</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>8.854161465986799</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>111.9805936890401</v>
+        <v>58.69799936658831</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2693,10 +2693,10 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W27" t="n">
-        <v>139.8321384792694</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X27" t="n">
         <v>187.4140068734885</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>63.89033441503636</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>183.7971125400421</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>229.1961435740429</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5312244651214</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>141.9144149051452</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>84.03487081680446</v>
       </c>
       <c r="E29" t="n">
-        <v>335.8151578977945</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>335.8151578977945</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="H29" t="n">
-        <v>295.7859910763773</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>211.7511202595727</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>335.8151578977945</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2873,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D30" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F30" t="n">
         <v>123.1874880556995</v>
@@ -2888,10 +2888,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>76.18305849007386</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>8.854161465986799</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>111.9805936890401</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>62.27650899790972</v>
       </c>
       <c r="U30" t="n">
         <v>207.8860038244843</v>
@@ -2936,10 +2936,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X30" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.80739964556381</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="31">
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5965581459434</v>
       </c>
       <c r="H31" t="n">
-        <v>145.2555273384648</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>102.4439188072657</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>4.534896306382679</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>183.7971125400421</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5312244651214</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>139.0769902146984</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.8151578977945</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>335.8151578977945</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>335.8151578977945</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>304.5301358581251</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>115.319892856474</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>211.7511202595727</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>295.7859910763774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3113,16 +3113,16 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>117.6962971812177</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3164,10 +3164,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>190.7396488882745</v>
+        <v>207.0089243899927</v>
       </c>
       <c r="V33" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>227.816073408046</v>
@@ -3176,7 +3176,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y33" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>1.065227424426047</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5965581459434</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>145.2555273384648</v>
       </c>
       <c r="I34" t="n">
-        <v>102.4439188072657</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5312244651214</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>148.292479813734</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,19 +3268,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>335.8151578977946</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="D35" t="n">
-        <v>335.8151578977946</v>
+        <v>84.03487081680451</v>
       </c>
       <c r="E35" t="n">
-        <v>335.8151578977946</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>42.7646684394179</v>
+        <v>211.7511202595727</v>
       </c>
       <c r="U35" t="n">
-        <v>253.0213226369596</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>335.8151578977945</v>
       </c>
     </row>
     <row r="36">
@@ -3347,13 +3347,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>123.1874880556995</v>
@@ -3398,16 +3398,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>16.17862029187595</v>
+        <v>170.5265796494932</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>207.8860038244843</v>
       </c>
       <c r="V36" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>50.78382863836232</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>123.4384169234847</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>40.62231673349972</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>102.4439188072657</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>78.82444768843243</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>183.7971125400421</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>229.1961435740429</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5312244651214</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>335.8151578977946</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>335.8151578977945</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>335.8151578977945</v>
+        <v>335.8151578977946</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>84.03487081680474</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>115.319892856474</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>211.7511202595727</v>
       </c>
       <c r="U38" t="n">
-        <v>253.0213226369596</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>51.50881322116541</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>335.8151578977946</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3581,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>117.6962971812177</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>76.18305849007386</v>
       </c>
       <c r="I39" t="n">
-        <v>8.854161465986799</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,22 +3632,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>111.9805936890401</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>170.5265796494932</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>131.4754762917282</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W39" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
-        <v>8.677148496473121</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
         <v>177.5210747552478</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>25.13453282365185</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
@@ -3672,13 +3672,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5965581459434</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>145.2555273384648</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>78.82444768843243</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>61.05584079972516</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -3748,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>335.8151578977945</v>
+        <v>333.0182389110921</v>
       </c>
       <c r="F41" t="n">
         <v>335.8151578977945</v>
       </c>
       <c r="G41" t="n">
-        <v>295.7859910763773</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>298.5829100630798</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>335.8151578977945</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3821,10 +3821,10 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>117.6962971812177</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>72.93096518683515</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>190.7396488882745</v>
+        <v>207.8860038244843</v>
       </c>
       <c r="V42" t="n">
         <v>220.3146016126436</v>
@@ -3884,7 +3884,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>177.5210747552478</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>128.2680190499773</v>
+        <v>165.5965581459434</v>
       </c>
       <c r="H43" t="n">
-        <v>145.2555273384648</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>102.4439188072657</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>183.7971125400421</v>
+        <v>79.54751338833124</v>
       </c>
       <c r="T43" t="n">
-        <v>229.1961435740429</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>282.5312244651214</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>335.8151578977945</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>42.76466843941784</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.0213226369596</v>
       </c>
       <c r="V44" t="n">
-        <v>335.8151578977945</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>335.8151578977945</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>295.7859910763773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,10 +4058,10 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>135.0820259802211</v>
@@ -4070,10 +4070,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>117.6962971812177</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>76.18305849007386</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>8.854161465986799</v>
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>111.9805936890401</v>
       </c>
       <c r="T45" t="n">
-        <v>16.1786202918755</v>
+        <v>170.5265796494932</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>155.1915698120789</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.40356872431661</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5965581459434</v>
       </c>
       <c r="H46" t="n">
-        <v>145.2555273384648</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>102.4439188072657</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>183.7971125400421</v>
       </c>
       <c r="T46" t="n">
         <v>229.1961435740429</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5312244651214</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>7.536546029966454</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>418.1015470954197</v>
+        <v>78.8943168956273</v>
       </c>
       <c r="C11" t="n">
-        <v>418.1015470954197</v>
+        <v>78.8943168956273</v>
       </c>
       <c r="D11" t="n">
-        <v>418.1015470954197</v>
+        <v>78.8943168956273</v>
       </c>
       <c r="E11" t="n">
-        <v>418.1015470954197</v>
+        <v>78.8943168956273</v>
       </c>
       <c r="F11" t="n">
-        <v>418.1015470954197</v>
+        <v>78.8943168956273</v>
       </c>
       <c r="G11" t="n">
-        <v>382.1611459787099</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="H11" t="n">
-        <v>80.56224692509392</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="I11" t="n">
         <v>26.86521263182357</v>
       </c>
       <c r="J11" t="n">
-        <v>92.99015204997863</v>
+        <v>92.99015204997841</v>
       </c>
       <c r="K11" t="n">
-        <v>225.0743319754415</v>
+        <v>225.0743319754417</v>
       </c>
       <c r="L11" t="n">
-        <v>412.9225820627734</v>
+        <v>412.922582062774</v>
       </c>
       <c r="M11" t="n">
-        <v>642.5250891064579</v>
+        <v>642.5250891064586</v>
       </c>
       <c r="N11" t="n">
-        <v>878.8417802023814</v>
+        <v>878.8417802023823</v>
       </c>
       <c r="O11" t="n">
-        <v>1093.321010641007</v>
+        <v>1093.321010641008</v>
       </c>
       <c r="P11" t="n">
-        <v>1253.948421109684</v>
+        <v>1253.948421109685</v>
       </c>
       <c r="Q11" t="n">
         <v>1343.260631591178</v>
@@ -5074,19 +5074,19 @@
         <v>1012.885870867899</v>
       </c>
       <c r="U11" t="n">
-        <v>757.3087772952122</v>
+        <v>757.3087772952124</v>
       </c>
       <c r="V11" t="n">
-        <v>418.1015470954197</v>
+        <v>757.3087772952124</v>
       </c>
       <c r="W11" t="n">
-        <v>418.1015470954197</v>
+        <v>418.1015470954198</v>
       </c>
       <c r="X11" t="n">
-        <v>418.1015470954197</v>
+        <v>418.1015470954198</v>
       </c>
       <c r="Y11" t="n">
-        <v>418.1015470954197</v>
+        <v>78.8943168956273</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>773.2680378979268</v>
+        <v>293.4006708994555</v>
       </c>
       <c r="C12" t="n">
-        <v>622.613807458019</v>
+        <v>293.4006708994555</v>
       </c>
       <c r="D12" t="n">
-        <v>492.5248400794994</v>
+        <v>163.3117035209359</v>
       </c>
       <c r="E12" t="n">
-        <v>356.0783491903871</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="F12" t="n">
-        <v>231.6465430735189</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="G12" t="n">
-        <v>112.7613944056222</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="H12" t="n">
-        <v>35.80881007221428</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="I12" t="n">
         <v>26.86521263182357</v>
       </c>
       <c r="J12" t="n">
-        <v>54.01717302604601</v>
+        <v>54.01717302604603</v>
       </c>
       <c r="K12" t="n">
         <v>151.2248341115958</v>
       </c>
       <c r="L12" t="n">
-        <v>312.0421823624363</v>
+        <v>312.0421823624364</v>
       </c>
       <c r="M12" t="n">
-        <v>512.2904068188609</v>
+        <v>512.2904068188611</v>
       </c>
       <c r="N12" t="n">
-        <v>772.2462259793538</v>
+        <v>727.2042251146946</v>
       </c>
       <c r="O12" t="n">
-        <v>1104.70323229817</v>
+        <v>909.3655151537739</v>
       </c>
       <c r="P12" t="n">
         <v>1238.337234119414</v>
@@ -5147,25 +5147,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S12" t="n">
-        <v>1343.260631591178</v>
+        <v>1287.15433220953</v>
       </c>
       <c r="T12" t="n">
-        <v>1293.685666913369</v>
+        <v>1287.15433220953</v>
       </c>
       <c r="U12" t="n">
-        <v>1293.685666913369</v>
+        <v>1077.168469760556</v>
       </c>
       <c r="V12" t="n">
-        <v>1293.685666913369</v>
+        <v>854.6284681316228</v>
       </c>
       <c r="W12" t="n">
-        <v>1293.685666913369</v>
+        <v>624.5112222649096</v>
       </c>
       <c r="X12" t="n">
-        <v>1104.378589263381</v>
+        <v>624.5112222649096</v>
       </c>
       <c r="Y12" t="n">
-        <v>925.0643723388881</v>
+        <v>445.1970053404169</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.86521263182357</v>
+        <v>510.0293784503467</v>
       </c>
       <c r="C13" t="n">
-        <v>26.86521263182357</v>
+        <v>339.8242605163359</v>
       </c>
       <c r="D13" t="n">
-        <v>26.86521263182357</v>
+        <v>184.1911474188506</v>
       </c>
       <c r="E13" t="n">
-        <v>26.86521263182357</v>
+        <v>184.1911474188506</v>
       </c>
       <c r="F13" t="n">
         <v>26.86521263182357</v>
@@ -5199,52 +5199,52 @@
         <v>26.86521263182357</v>
       </c>
       <c r="J13" t="n">
-        <v>26.86521263182357</v>
+        <v>65.33151044026182</v>
       </c>
       <c r="K13" t="n">
-        <v>220.83960264071</v>
+        <v>259.3059004491482</v>
       </c>
       <c r="L13" t="n">
-        <v>277.5410718178442</v>
+        <v>352.6697335806355</v>
       </c>
       <c r="M13" t="n">
-        <v>600.881731110921</v>
+        <v>685.1267398994522</v>
       </c>
       <c r="N13" t="n">
-        <v>931.7741554407166</v>
+        <v>1016.019164229248</v>
       </c>
       <c r="O13" t="n">
-        <v>1230.906355712533</v>
+        <v>1315.151364501065</v>
       </c>
       <c r="P13" t="n">
-        <v>1259.015622802647</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="Q13" t="n">
         <v>1343.260631591178</v>
       </c>
       <c r="R13" t="n">
-        <v>1263.639977360438</v>
+        <v>1263.639977360439</v>
       </c>
       <c r="S13" t="n">
         <v>1077.986328330093</v>
       </c>
       <c r="T13" t="n">
-        <v>846.4750721946961</v>
+        <v>1077.986328330093</v>
       </c>
       <c r="U13" t="n">
-        <v>561.0899969774017</v>
+        <v>1077.986328330093</v>
       </c>
       <c r="V13" t="n">
-        <v>295.1106517982259</v>
+        <v>1077.986328330093</v>
       </c>
       <c r="W13" t="n">
-        <v>26.86521263182357</v>
+        <v>794.6559262612707</v>
       </c>
       <c r="X13" t="n">
-        <v>26.86521263182357</v>
+        <v>794.6559262612707</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.86521263182357</v>
+        <v>571.543865077914</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1343.260631591178</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="C14" t="n">
-        <v>1343.260631591178</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="D14" t="n">
-        <v>1343.260631591178</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="E14" t="n">
-        <v>1006.878572085025</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="F14" t="n">
-        <v>667.6713418852321</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="G14" t="n">
-        <v>328.4641116854395</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="H14" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I14" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="J14" t="n">
-        <v>92.99015204997863</v>
+        <v>92.99015204997841</v>
       </c>
       <c r="K14" t="n">
-        <v>225.0743319754419</v>
+        <v>225.0743319754415</v>
       </c>
       <c r="L14" t="n">
-        <v>412.9225820627738</v>
+        <v>412.9225820627732</v>
       </c>
       <c r="M14" t="n">
-        <v>642.5250891064584</v>
+        <v>642.5250891064579</v>
       </c>
       <c r="N14" t="n">
-        <v>878.8417802023819</v>
+        <v>878.8417802023815</v>
       </c>
       <c r="O14" t="n">
         <v>1093.321010641008</v>
@@ -5314,16 +5314,16 @@
         <v>1343.260631591178</v>
       </c>
       <c r="V14" t="n">
-        <v>1343.260631591178</v>
+        <v>1004.053401391386</v>
       </c>
       <c r="W14" t="n">
-        <v>1343.260631591178</v>
+        <v>664.8461711915932</v>
       </c>
       <c r="X14" t="n">
-        <v>1343.260631591178</v>
+        <v>325.6389409918007</v>
       </c>
       <c r="Y14" t="n">
-        <v>1343.260631591178</v>
+        <v>26.86521263182356</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>773.2680378979268</v>
+        <v>177.2578999280803</v>
       </c>
       <c r="C15" t="n">
-        <v>622.613807458019</v>
+        <v>177.2578999280803</v>
       </c>
       <c r="D15" t="n">
-        <v>492.5248400794994</v>
+        <v>47.16893254956068</v>
       </c>
       <c r="E15" t="n">
-        <v>356.0783491903871</v>
+        <v>47.16893254956068</v>
       </c>
       <c r="F15" t="n">
-        <v>231.6465430735189</v>
+        <v>35.80881007221426</v>
       </c>
       <c r="G15" t="n">
-        <v>112.7613944056222</v>
+        <v>35.80881007221426</v>
       </c>
       <c r="H15" t="n">
-        <v>35.80881007221428</v>
+        <v>35.80881007221426</v>
       </c>
       <c r="I15" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="J15" t="n">
-        <v>77.71523210246671</v>
+        <v>54.01717302604602</v>
       </c>
       <c r="K15" t="n">
-        <v>174.9228931880165</v>
+        <v>151.2248341115958</v>
       </c>
       <c r="L15" t="n">
-        <v>507.3798995068331</v>
+        <v>312.0421823624364</v>
       </c>
       <c r="M15" t="n">
-        <v>707.6281239632577</v>
+        <v>512.2904068188611</v>
       </c>
       <c r="N15" t="n">
-        <v>922.5419422590912</v>
+        <v>727.2042251146946</v>
       </c>
       <c r="O15" t="n">
-        <v>1104.70323229817</v>
+        <v>909.3655151537739</v>
       </c>
       <c r="P15" t="n">
-        <v>1238.337234119414</v>
+        <v>1042.999516975018</v>
       </c>
       <c r="Q15" t="n">
-        <v>1295.220547689827</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="R15" t="n">
         <v>1343.260631591178</v>
@@ -5387,22 +5387,22 @@
         <v>1343.260631591178</v>
       </c>
       <c r="T15" t="n">
-        <v>1343.260631591178</v>
+        <v>1171.011561238155</v>
       </c>
       <c r="U15" t="n">
-        <v>1343.260631591178</v>
+        <v>961.0256987891805</v>
       </c>
       <c r="V15" t="n">
-        <v>1343.260631591178</v>
+        <v>738.4856971602476</v>
       </c>
       <c r="W15" t="n">
-        <v>1293.685666913369</v>
+        <v>508.3684512935345</v>
       </c>
       <c r="X15" t="n">
-        <v>1104.378589263381</v>
+        <v>508.3684512935345</v>
       </c>
       <c r="Y15" t="n">
-        <v>925.0643723388881</v>
+        <v>329.0542343690417</v>
       </c>
     </row>
     <row r="16">
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1083.058901996875</v>
+        <v>184.1911474188506</v>
       </c>
       <c r="C16" t="n">
-        <v>912.8537840628646</v>
+        <v>184.1911474188506</v>
       </c>
       <c r="D16" t="n">
-        <v>757.2206709653794</v>
+        <v>184.1911474188506</v>
       </c>
       <c r="E16" t="n">
-        <v>601.6618588245819</v>
+        <v>184.1911474188506</v>
       </c>
       <c r="F16" t="n">
-        <v>444.3359240375548</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="G16" t="n">
-        <v>277.0666733850867</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="H16" t="n">
-        <v>130.3439184977485</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I16" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="J16" t="n">
-        <v>26.86521263182357</v>
+        <v>65.33151044026181</v>
       </c>
       <c r="K16" t="n">
-        <v>220.83960264071</v>
+        <v>259.3059004491482</v>
       </c>
       <c r="L16" t="n">
-        <v>277.5410718178442</v>
+        <v>566.9332986870591</v>
       </c>
       <c r="M16" t="n">
-        <v>609.9980781366608</v>
+        <v>657.7328766233023</v>
       </c>
       <c r="N16" t="n">
-        <v>940.8905024664564</v>
+        <v>723.2700190585113</v>
       </c>
       <c r="O16" t="n">
-        <v>1230.906355712533</v>
+        <v>1022.402219330328</v>
       </c>
       <c r="P16" t="n">
         <v>1259.015622802647</v>
@@ -5466,22 +5466,22 @@
         <v>1343.260631591178</v>
       </c>
       <c r="T16" t="n">
-        <v>1343.260631591178</v>
+        <v>1241.9980310675</v>
       </c>
       <c r="U16" t="n">
-        <v>1343.260631591178</v>
+        <v>956.6129558502054</v>
       </c>
       <c r="V16" t="n">
-        <v>1343.260631591178</v>
+        <v>690.6336106710296</v>
       </c>
       <c r="W16" t="n">
-        <v>1343.260631591178</v>
+        <v>407.3032086022073</v>
       </c>
       <c r="X16" t="n">
-        <v>1343.260631591178</v>
+        <v>407.3032086022073</v>
       </c>
       <c r="Y16" t="n">
-        <v>1268.266920688177</v>
+        <v>184.1911474188506</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>78.89431689562718</v>
+        <v>325.6389409918007</v>
       </c>
       <c r="C17" t="n">
-        <v>78.89431689562718</v>
+        <v>325.6389409918007</v>
       </c>
       <c r="D17" t="n">
-        <v>78.89431689562718</v>
+        <v>325.6389409918007</v>
       </c>
       <c r="E17" t="n">
-        <v>78.89431689562718</v>
+        <v>325.6389409918007</v>
       </c>
       <c r="F17" t="n">
-        <v>78.89431689562718</v>
+        <v>325.6389409918007</v>
       </c>
       <c r="G17" t="n">
-        <v>78.89431689562718</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="H17" t="n">
-        <v>78.89431689562718</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I17" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="J17" t="n">
         <v>92.99015204997841</v>
@@ -5521,13 +5521,13 @@
         <v>225.0743319754415</v>
       </c>
       <c r="L17" t="n">
-        <v>412.9225820627735</v>
+        <v>412.9225820627732</v>
       </c>
       <c r="M17" t="n">
-        <v>642.5250891064582</v>
+        <v>642.5250891064579</v>
       </c>
       <c r="N17" t="n">
-        <v>878.8417802023818</v>
+        <v>878.8417802023815</v>
       </c>
       <c r="O17" t="n">
         <v>1093.321010641008</v>
@@ -5542,25 +5542,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S17" t="n">
-        <v>1226.775891332114</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="T17" t="n">
-        <v>1012.885870867899</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="U17" t="n">
-        <v>757.3087772952122</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="V17" t="n">
-        <v>418.1015470954197</v>
+        <v>1004.053401391386</v>
       </c>
       <c r="W17" t="n">
-        <v>78.89431689562718</v>
+        <v>664.8461711915932</v>
       </c>
       <c r="X17" t="n">
-        <v>78.89431689562718</v>
+        <v>325.6389409918007</v>
       </c>
       <c r="Y17" t="n">
-        <v>78.89431689562718</v>
+        <v>325.6389409918007</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>112.7613944056222</v>
+        <v>508.3684512935345</v>
       </c>
       <c r="C18" t="n">
-        <v>112.7613944056222</v>
+        <v>357.7142208536267</v>
       </c>
       <c r="D18" t="n">
-        <v>112.7613944056222</v>
+        <v>227.625253475107</v>
       </c>
       <c r="E18" t="n">
-        <v>112.7613944056222</v>
+        <v>227.625253475107</v>
       </c>
       <c r="F18" t="n">
-        <v>112.7613944056222</v>
+        <v>103.1934473582388</v>
       </c>
       <c r="G18" t="n">
-        <v>112.7613944056222</v>
+        <v>35.80881007221426</v>
       </c>
       <c r="H18" t="n">
-        <v>35.80881007221427</v>
+        <v>35.80881007221426</v>
       </c>
       <c r="I18" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="J18" t="n">
-        <v>131.8117021474595</v>
+        <v>54.01717302604602</v>
       </c>
       <c r="K18" t="n">
-        <v>229.0193632330093</v>
+        <v>151.2248341115958</v>
       </c>
       <c r="L18" t="n">
-        <v>389.8367114838499</v>
+        <v>312.0421823624364</v>
       </c>
       <c r="M18" t="n">
-        <v>590.0849359402746</v>
+        <v>512.2904068188611</v>
       </c>
       <c r="N18" t="n">
-        <v>922.5419422590912</v>
+        <v>727.2042251146946</v>
       </c>
       <c r="O18" t="n">
-        <v>1104.70323229817</v>
+        <v>909.3655151537739</v>
       </c>
       <c r="P18" t="n">
-        <v>1238.337234119414</v>
+        <v>1042.999516975018</v>
       </c>
       <c r="Q18" t="n">
-        <v>1295.220547689827</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="R18" t="n">
         <v>1343.260631591178</v>
       </c>
       <c r="S18" t="n">
-        <v>1230.148920794168</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="T18" t="n">
-        <v>1057.899850441145</v>
+        <v>1171.011561238155</v>
       </c>
       <c r="U18" t="n">
-        <v>847.9139879921706</v>
+        <v>961.0256987891805</v>
       </c>
       <c r="V18" t="n">
-        <v>625.3739863632377</v>
+        <v>738.4856971602476</v>
       </c>
       <c r="W18" t="n">
-        <v>395.2567404965246</v>
+        <v>508.3684512935345</v>
       </c>
       <c r="X18" t="n">
-        <v>205.9496628465362</v>
+        <v>508.3684512935345</v>
       </c>
       <c r="Y18" t="n">
-        <v>112.7613944056222</v>
+        <v>508.3684512935345</v>
       </c>
     </row>
     <row r="19">
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>221.4223102998233</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="C19" t="n">
-        <v>51.21719236581248</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="D19" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="E19" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="F19" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="G19" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="H19" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I19" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="J19" t="n">
-        <v>65.33151044026181</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="K19" t="n">
-        <v>259.3059004491482</v>
+        <v>55.9845298980286</v>
       </c>
       <c r="L19" t="n">
-        <v>566.9332986870591</v>
+        <v>363.6119281359395</v>
       </c>
       <c r="M19" t="n">
-        <v>899.3903050058757</v>
+        <v>685.1267398994518</v>
       </c>
       <c r="N19" t="n">
-        <v>964.9274474410846</v>
+        <v>1016.019164229248</v>
       </c>
       <c r="O19" t="n">
-        <v>1022.402219330328</v>
+        <v>1315.151364501064</v>
       </c>
       <c r="P19" t="n">
-        <v>1259.015622802647</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="Q19" t="n">
         <v>1343.260631591178</v>
@@ -5700,25 +5700,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S19" t="n">
-        <v>1157.606982560833</v>
+        <v>1318.75241849749</v>
       </c>
       <c r="T19" t="n">
-        <v>926.0957264254358</v>
+        <v>1318.75241849749</v>
       </c>
       <c r="U19" t="n">
-        <v>640.7106512081415</v>
+        <v>1033.367343280195</v>
       </c>
       <c r="V19" t="n">
-        <v>640.7106512081415</v>
+        <v>767.3879981010195</v>
       </c>
       <c r="W19" t="n">
-        <v>640.7106512081415</v>
+        <v>484.0575960321971</v>
       </c>
       <c r="X19" t="n">
-        <v>406.6303289911245</v>
+        <v>249.9772738151802</v>
       </c>
       <c r="Y19" t="n">
-        <v>406.6303289911245</v>
+        <v>26.86521263182356</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>667.6713418852321</v>
+        <v>1226.775891332113</v>
       </c>
       <c r="C20" t="n">
-        <v>667.6713418852321</v>
+        <v>1226.775891332113</v>
       </c>
       <c r="D20" t="n">
-        <v>328.4641116854395</v>
+        <v>1226.775891332113</v>
       </c>
       <c r="E20" t="n">
-        <v>328.4641116854395</v>
+        <v>887.5686611323209</v>
       </c>
       <c r="F20" t="n">
-        <v>328.4641116854395</v>
+        <v>721.3683761785023</v>
       </c>
       <c r="G20" t="n">
-        <v>328.4641116854395</v>
+        <v>382.1611459787099</v>
       </c>
       <c r="H20" t="n">
-        <v>26.86521263182357</v>
+        <v>80.56224692509389</v>
       </c>
       <c r="I20" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="J20" t="n">
         <v>92.99015204997841</v>
       </c>
       <c r="K20" t="n">
-        <v>225.0743319754413</v>
+        <v>225.0743319754416</v>
       </c>
       <c r="L20" t="n">
-        <v>412.9225820627736</v>
+        <v>412.9225820627735</v>
       </c>
       <c r="M20" t="n">
-        <v>642.5250891064582</v>
+        <v>642.525089106458</v>
       </c>
       <c r="N20" t="n">
-        <v>878.8417802023818</v>
+        <v>878.8417802023814</v>
       </c>
       <c r="O20" t="n">
-        <v>1093.321010641008</v>
+        <v>1093.321010641007</v>
       </c>
       <c r="P20" t="n">
         <v>1253.948421109684</v>
@@ -5779,25 +5779,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S20" t="n">
-        <v>1343.260631591178</v>
+        <v>1226.775891332113</v>
       </c>
       <c r="T20" t="n">
-        <v>1129.370611126963</v>
+        <v>1226.775891332113</v>
       </c>
       <c r="U20" t="n">
-        <v>1129.370611126963</v>
+        <v>1226.775891332113</v>
       </c>
       <c r="V20" t="n">
-        <v>1129.370611126963</v>
+        <v>1226.775891332113</v>
       </c>
       <c r="W20" t="n">
-        <v>1006.878572085025</v>
+        <v>1226.775891332113</v>
       </c>
       <c r="X20" t="n">
-        <v>1006.878572085025</v>
+        <v>1226.775891332113</v>
       </c>
       <c r="Y20" t="n">
-        <v>1006.878572085025</v>
+        <v>1226.775891332113</v>
       </c>
     </row>
     <row r="21">
@@ -5807,31 +5807,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>744.5220911499844</v>
+        <v>622.613807458019</v>
       </c>
       <c r="C21" t="n">
-        <v>593.8678607100766</v>
+        <v>622.613807458019</v>
       </c>
       <c r="D21" t="n">
-        <v>463.7788933315569</v>
+        <v>492.5248400794994</v>
       </c>
       <c r="E21" t="n">
-        <v>327.3324024424446</v>
+        <v>356.0783491903871</v>
       </c>
       <c r="F21" t="n">
-        <v>202.9005963255764</v>
+        <v>231.6465430735189</v>
       </c>
       <c r="G21" t="n">
-        <v>84.01544765767973</v>
+        <v>112.7613944056222</v>
       </c>
       <c r="H21" t="n">
-        <v>26.86521263182357</v>
+        <v>35.80881007221426</v>
       </c>
       <c r="I21" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="J21" t="n">
-        <v>54.01717302604603</v>
+        <v>54.01717302604602</v>
       </c>
       <c r="K21" t="n">
         <v>151.2248341115958</v>
@@ -5840,43 +5840,43 @@
         <v>312.0421823624364</v>
       </c>
       <c r="M21" t="n">
-        <v>644.4991886812531</v>
+        <v>512.2904068188611</v>
       </c>
       <c r="N21" t="n">
-        <v>859.4130069770866</v>
+        <v>727.2042251146946</v>
       </c>
       <c r="O21" t="n">
-        <v>1041.574297016166</v>
+        <v>909.3655151537739</v>
       </c>
       <c r="P21" t="n">
-        <v>1175.20829883741</v>
+        <v>1042.999516975018</v>
       </c>
       <c r="Q21" t="n">
-        <v>1295.220547689827</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="R21" t="n">
         <v>1343.260631591178</v>
       </c>
       <c r="S21" t="n">
-        <v>1343.260631591178</v>
+        <v>1230.148920794168</v>
       </c>
       <c r="T21" t="n">
-        <v>1343.260631591178</v>
+        <v>1057.899850441145</v>
       </c>
       <c r="U21" t="n">
-        <v>1343.260631591178</v>
+        <v>1057.899850441145</v>
       </c>
       <c r="V21" t="n">
-        <v>1343.260631591178</v>
+        <v>1042.03813097472</v>
       </c>
       <c r="W21" t="n">
-        <v>1113.143385724465</v>
+        <v>811.9208851080073</v>
       </c>
       <c r="X21" t="n">
-        <v>923.8363080744771</v>
+        <v>622.613807458019</v>
       </c>
       <c r="Y21" t="n">
-        <v>744.5220911499844</v>
+        <v>622.613807458019</v>
       </c>
     </row>
     <row r="22">
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>323.3577904345847</v>
+        <v>354.3962653528614</v>
       </c>
       <c r="C22" t="n">
-        <v>323.3577904345847</v>
+        <v>184.1911474188506</v>
       </c>
       <c r="D22" t="n">
-        <v>323.3577904345847</v>
+        <v>184.1911474188506</v>
       </c>
       <c r="E22" t="n">
-        <v>323.3577904345847</v>
+        <v>184.1911474188506</v>
       </c>
       <c r="F22" t="n">
-        <v>323.3577904345847</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="G22" t="n">
-        <v>277.0666733850867</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3439184977485</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I22" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="J22" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="K22" t="n">
-        <v>55.98452989802861</v>
+        <v>55.9845298980286</v>
       </c>
       <c r="L22" t="n">
-        <v>352.6697335806355</v>
+        <v>363.6119281359395</v>
       </c>
       <c r="M22" t="n">
-        <v>685.1267398994522</v>
+        <v>685.1267398994518</v>
       </c>
       <c r="N22" t="n">
         <v>1016.019164229248</v>
       </c>
       <c r="O22" t="n">
-        <v>1315.151364501065</v>
+        <v>1315.151364501064</v>
       </c>
       <c r="P22" t="n">
         <v>1343.260631591178</v>
@@ -5943,19 +5943,19 @@
         <v>1343.260631591178</v>
       </c>
       <c r="U22" t="n">
-        <v>1057.875556373884</v>
+        <v>1126.818073784216</v>
       </c>
       <c r="V22" t="n">
-        <v>791.8962111947084</v>
+        <v>860.8387286050404</v>
       </c>
       <c r="W22" t="n">
-        <v>508.565809125886</v>
+        <v>577.5083265362181</v>
       </c>
       <c r="X22" t="n">
-        <v>508.565809125886</v>
+        <v>577.5083265362181</v>
       </c>
       <c r="Y22" t="n">
-        <v>508.565809125886</v>
+        <v>354.3962653528614</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>26.86521263182357</v>
+        <v>1004.053401391386</v>
       </c>
       <c r="C23" t="n">
-        <v>26.86521263182357</v>
+        <v>1004.053401391386</v>
       </c>
       <c r="D23" t="n">
-        <v>26.86521263182357</v>
+        <v>1004.053401391386</v>
       </c>
       <c r="E23" t="n">
-        <v>26.86521263182357</v>
+        <v>664.8461711915932</v>
       </c>
       <c r="F23" t="n">
-        <v>26.86521263182357</v>
+        <v>325.6389409918007</v>
       </c>
       <c r="G23" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="H23" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I23" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="J23" t="n">
-        <v>92.99015204997818</v>
+        <v>92.99015204997841</v>
       </c>
       <c r="K23" t="n">
-        <v>225.0743319754411</v>
+        <v>225.0743319754415</v>
       </c>
       <c r="L23" t="n">
-        <v>412.9225820627731</v>
+        <v>412.9225820627734</v>
       </c>
       <c r="M23" t="n">
-        <v>642.5250891064577</v>
+        <v>642.525089106458</v>
       </c>
       <c r="N23" t="n">
         <v>878.8417802023814</v>
@@ -6025,16 +6025,16 @@
         <v>1343.260631591178</v>
       </c>
       <c r="V23" t="n">
-        <v>1343.260631591178</v>
+        <v>1004.053401391386</v>
       </c>
       <c r="W23" t="n">
-        <v>1044.486903231201</v>
+        <v>1004.053401391386</v>
       </c>
       <c r="X23" t="n">
-        <v>705.2796730314085</v>
+        <v>1004.053401391386</v>
       </c>
       <c r="Y23" t="n">
-        <v>366.0724428316161</v>
+        <v>1004.053401391386</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>568.4867074562314</v>
+        <v>160.2406161890825</v>
       </c>
       <c r="C24" t="n">
-        <v>417.8324770163237</v>
+        <v>160.2406161890825</v>
       </c>
       <c r="D24" t="n">
-        <v>287.743509637804</v>
+        <v>160.2406161890825</v>
       </c>
       <c r="E24" t="n">
-        <v>151.2970187486918</v>
+        <v>160.2406161890825</v>
       </c>
       <c r="F24" t="n">
-        <v>26.86521263182357</v>
+        <v>35.80881007221426</v>
       </c>
       <c r="G24" t="n">
-        <v>26.86521263182357</v>
+        <v>35.80881007221426</v>
       </c>
       <c r="H24" t="n">
-        <v>26.86521263182357</v>
+        <v>35.80881007221426</v>
       </c>
       <c r="I24" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="J24" t="n">
-        <v>248.7521680057734</v>
+        <v>54.01717302604602</v>
       </c>
       <c r="K24" t="n">
-        <v>346.5625512559925</v>
+        <v>151.2248341115958</v>
       </c>
       <c r="L24" t="n">
-        <v>507.3798995068331</v>
+        <v>312.0421823624364</v>
       </c>
       <c r="M24" t="n">
-        <v>707.6281239632577</v>
+        <v>512.2904068188611</v>
       </c>
       <c r="N24" t="n">
-        <v>922.5419422590912</v>
+        <v>727.2042251146946</v>
       </c>
       <c r="O24" t="n">
-        <v>1104.70323229817</v>
+        <v>909.3655151537739</v>
       </c>
       <c r="P24" t="n">
-        <v>1238.337234119414</v>
+        <v>1042.999516975018</v>
       </c>
       <c r="Q24" t="n">
-        <v>1295.220547689827</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="R24" t="n">
         <v>1343.260631591178</v>
       </c>
       <c r="S24" t="n">
-        <v>1281.832191623683</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="T24" t="n">
-        <v>1109.58312127066</v>
+        <v>1171.011561238155</v>
       </c>
       <c r="U24" t="n">
-        <v>899.5972588216855</v>
+        <v>961.0256987891805</v>
       </c>
       <c r="V24" t="n">
-        <v>899.5972588216855</v>
+        <v>738.4856971602476</v>
       </c>
       <c r="W24" t="n">
-        <v>899.5972588216855</v>
+        <v>680.658245204525</v>
       </c>
       <c r="X24" t="n">
-        <v>899.5972588216855</v>
+        <v>491.3511675545366</v>
       </c>
       <c r="Y24" t="n">
-        <v>720.2830418971928</v>
+        <v>312.0369506300438</v>
       </c>
     </row>
     <row r="25">
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>669.6662484554349</v>
+        <v>599.96903713504</v>
       </c>
       <c r="C25" t="n">
-        <v>499.4611305214241</v>
+        <v>599.96903713504</v>
       </c>
       <c r="D25" t="n">
-        <v>343.8280174239389</v>
+        <v>444.3359240375548</v>
       </c>
       <c r="E25" t="n">
-        <v>188.2692052831414</v>
+        <v>444.3359240375548</v>
       </c>
       <c r="F25" t="n">
-        <v>30.94327049611434</v>
+        <v>444.3359240375548</v>
       </c>
       <c r="G25" t="n">
-        <v>30.94327049611434</v>
+        <v>277.0666733850867</v>
       </c>
       <c r="H25" t="n">
-        <v>30.94327049611434</v>
+        <v>130.3439184977485</v>
       </c>
       <c r="I25" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="J25" t="n">
-        <v>65.33151044026181</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="K25" t="n">
-        <v>94.45082770646684</v>
+        <v>55.9845298980286</v>
       </c>
       <c r="L25" t="n">
-        <v>402.0782259443777</v>
+        <v>363.6119281359395</v>
       </c>
       <c r="M25" t="n">
-        <v>734.5352322631943</v>
+        <v>685.1267398994518</v>
       </c>
       <c r="N25" t="n">
-        <v>1065.42765659299</v>
+        <v>1016.019164229248</v>
       </c>
       <c r="O25" t="n">
-        <v>1315.151364501065</v>
+        <v>1315.151364501064</v>
       </c>
       <c r="P25" t="n">
         <v>1343.260631591178</v>
@@ -6171,28 +6171,28 @@
         <v>1343.260631591178</v>
       </c>
       <c r="R25" t="n">
-        <v>1263.639977360438</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="S25" t="n">
-        <v>1077.986328330093</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="T25" t="n">
-        <v>1077.986328330093</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="U25" t="n">
-        <v>1077.986328330093</v>
+        <v>1057.875556373884</v>
       </c>
       <c r="V25" t="n">
-        <v>1077.986328330093</v>
+        <v>1057.875556373884</v>
       </c>
       <c r="W25" t="n">
-        <v>1077.986328330093</v>
+        <v>1057.875556373884</v>
       </c>
       <c r="X25" t="n">
-        <v>1077.986328330093</v>
+        <v>823.7952341568667</v>
       </c>
       <c r="Y25" t="n">
-        <v>854.8742671467362</v>
+        <v>600.6831729735101</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>366.0724428316161</v>
+        <v>366.072442831616</v>
       </c>
       <c r="C26" t="n">
-        <v>26.86521263182357</v>
+        <v>366.072442831616</v>
       </c>
       <c r="D26" t="n">
-        <v>26.86521263182357</v>
+        <v>366.072442831616</v>
       </c>
       <c r="E26" t="n">
-        <v>26.86521263182357</v>
+        <v>366.072442831616</v>
       </c>
       <c r="F26" t="n">
-        <v>26.86521263182357</v>
+        <v>366.072442831616</v>
       </c>
       <c r="G26" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="H26" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I26" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="J26" t="n">
-        <v>92.99015204997841</v>
+        <v>92.99015204997838</v>
       </c>
       <c r="K26" t="n">
-        <v>225.0743319754414</v>
+        <v>225.0743319754415</v>
       </c>
       <c r="L26" t="n">
-        <v>412.9225820627736</v>
+        <v>412.9225820627735</v>
       </c>
       <c r="M26" t="n">
         <v>642.5250891064582</v>
       </c>
       <c r="N26" t="n">
-        <v>878.8417802023819</v>
+        <v>878.8417802023818</v>
       </c>
       <c r="O26" t="n">
         <v>1093.321010641008</v>
       </c>
       <c r="P26" t="n">
-        <v>1253.948421109685</v>
+        <v>1253.948421109684</v>
       </c>
       <c r="Q26" t="n">
         <v>1343.260631591178</v>
@@ -6256,22 +6256,22 @@
         <v>1343.260631591178</v>
       </c>
       <c r="T26" t="n">
-        <v>1343.260631591178</v>
+        <v>1129.370611126963</v>
       </c>
       <c r="U26" t="n">
-        <v>1087.683538018492</v>
+        <v>873.7935175542765</v>
       </c>
       <c r="V26" t="n">
-        <v>1087.683538018492</v>
+        <v>873.7935175542765</v>
       </c>
       <c r="W26" t="n">
-        <v>1087.683538018492</v>
+        <v>873.7935175542765</v>
       </c>
       <c r="X26" t="n">
-        <v>748.4763078186995</v>
+        <v>534.5862873544841</v>
       </c>
       <c r="Y26" t="n">
-        <v>705.2796730314087</v>
+        <v>366.072442831616</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>568.4867074562316</v>
+        <v>310.8948466289903</v>
       </c>
       <c r="C27" t="n">
-        <v>417.8324770163238</v>
+        <v>160.2406161890825</v>
       </c>
       <c r="D27" t="n">
-        <v>287.7435096378041</v>
+        <v>160.2406161890825</v>
       </c>
       <c r="E27" t="n">
-        <v>151.2970187486918</v>
+        <v>160.2406161890825</v>
       </c>
       <c r="F27" t="n">
-        <v>26.86521263182357</v>
+        <v>35.80881007221426</v>
       </c>
       <c r="G27" t="n">
-        <v>26.86521263182357</v>
+        <v>35.80881007221426</v>
       </c>
       <c r="H27" t="n">
-        <v>26.86521263182357</v>
+        <v>35.80881007221426</v>
       </c>
       <c r="I27" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="J27" t="n">
-        <v>62.14562883852733</v>
+        <v>54.01717302604602</v>
       </c>
       <c r="K27" t="n">
-        <v>394.602635157344</v>
+        <v>151.2248341115958</v>
       </c>
       <c r="L27" t="n">
-        <v>555.4199834081846</v>
+        <v>312.0421823624364</v>
       </c>
       <c r="M27" t="n">
-        <v>755.6682078646094</v>
+        <v>512.2904068188611</v>
       </c>
       <c r="N27" t="n">
-        <v>970.5820261604429</v>
+        <v>727.2042251146946</v>
       </c>
       <c r="O27" t="n">
-        <v>1152.743316199522</v>
+        <v>909.3655151537739</v>
       </c>
       <c r="P27" t="n">
-        <v>1286.377318020766</v>
+        <v>1042.999516975018</v>
       </c>
       <c r="Q27" t="n">
         <v>1343.260631591178</v>
@@ -6332,25 +6332,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S27" t="n">
-        <v>1230.148920794168</v>
+        <v>1283.969723140079</v>
       </c>
       <c r="T27" t="n">
-        <v>1230.148920794168</v>
+        <v>1283.969723140079</v>
       </c>
       <c r="U27" t="n">
-        <v>1230.148920794168</v>
+        <v>1283.969723140079</v>
       </c>
       <c r="V27" t="n">
-        <v>1230.148920794168</v>
+        <v>1061.429721511146</v>
       </c>
       <c r="W27" t="n">
-        <v>1088.904336471674</v>
+        <v>831.3124756444327</v>
       </c>
       <c r="X27" t="n">
-        <v>899.5972588216857</v>
+        <v>642.0053979944444</v>
       </c>
       <c r="Y27" t="n">
-        <v>720.2830418971929</v>
+        <v>462.6911810699516</v>
       </c>
     </row>
     <row r="28">
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>508.2622558041171</v>
+        <v>91.40090396014313</v>
       </c>
       <c r="C28" t="n">
-        <v>338.0571378701063</v>
+        <v>91.40090396014313</v>
       </c>
       <c r="D28" t="n">
-        <v>182.4240247726211</v>
+        <v>91.40090396014313</v>
       </c>
       <c r="E28" t="n">
-        <v>26.86521263182357</v>
+        <v>91.40090396014313</v>
       </c>
       <c r="F28" t="n">
-        <v>26.86521263182357</v>
+        <v>91.40090396014313</v>
       </c>
       <c r="G28" t="n">
-        <v>26.86521263182357</v>
+        <v>91.40090396014313</v>
       </c>
       <c r="H28" t="n">
-        <v>26.86521263182357</v>
+        <v>91.40090396014313</v>
       </c>
       <c r="I28" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="J28" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="K28" t="n">
-        <v>55.98452989802861</v>
+        <v>55.9845298980286</v>
       </c>
       <c r="L28" t="n">
         <v>363.6119281359395</v>
       </c>
       <c r="M28" t="n">
-        <v>685.1267398994522</v>
+        <v>685.1267398994518</v>
       </c>
       <c r="N28" t="n">
         <v>1016.019164229248</v>
       </c>
       <c r="O28" t="n">
-        <v>1315.151364501065</v>
+        <v>1315.151364501064</v>
       </c>
       <c r="P28" t="n">
         <v>1343.260631591178</v>
@@ -6411,25 +6411,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S28" t="n">
-        <v>1343.260631591178</v>
+        <v>1157.606982560832</v>
       </c>
       <c r="T28" t="n">
-        <v>1343.260631591178</v>
+        <v>926.0957264254356</v>
       </c>
       <c r="U28" t="n">
-        <v>1343.260631591178</v>
+        <v>640.7106512081413</v>
       </c>
       <c r="V28" t="n">
-        <v>1343.260631591178</v>
+        <v>374.7313060289655</v>
       </c>
       <c r="W28" t="n">
-        <v>1059.930229522356</v>
+        <v>91.40090396014313</v>
       </c>
       <c r="X28" t="n">
-        <v>916.5823356787751</v>
+        <v>91.40090396014313</v>
       </c>
       <c r="Y28" t="n">
-        <v>693.4702744954184</v>
+        <v>91.40090396014313</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1004.053401391386</v>
+        <v>790.1633809271706</v>
       </c>
       <c r="C29" t="n">
-        <v>1004.053401391386</v>
+        <v>790.1633809271706</v>
       </c>
       <c r="D29" t="n">
-        <v>1004.053401391386</v>
+        <v>705.2796730314085</v>
       </c>
       <c r="E29" t="n">
-        <v>664.8461711915932</v>
+        <v>705.2796730314085</v>
       </c>
       <c r="F29" t="n">
-        <v>325.6389409918007</v>
+        <v>366.072442831616</v>
       </c>
       <c r="G29" t="n">
-        <v>325.6389409918007</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="H29" t="n">
         <v>26.86521263182356</v>
@@ -6463,7 +6463,7 @@
         <v>26.86521263182356</v>
       </c>
       <c r="J29" t="n">
-        <v>92.99015204997846</v>
+        <v>92.99015204997838</v>
       </c>
       <c r="K29" t="n">
         <v>225.0743319754415</v>
@@ -6472,10 +6472,10 @@
         <v>412.9225820627735</v>
       </c>
       <c r="M29" t="n">
-        <v>642.5250891064579</v>
+        <v>642.5250891064582</v>
       </c>
       <c r="N29" t="n">
-        <v>878.8417802023814</v>
+        <v>878.8417802023818</v>
       </c>
       <c r="O29" t="n">
         <v>1093.321010641008</v>
@@ -6493,22 +6493,22 @@
         <v>1343.260631591178</v>
       </c>
       <c r="T29" t="n">
-        <v>1343.260631591178</v>
+        <v>1129.370611126963</v>
       </c>
       <c r="U29" t="n">
-        <v>1343.260631591178</v>
+        <v>1129.370611126963</v>
       </c>
       <c r="V29" t="n">
-        <v>1004.053401391386</v>
+        <v>1129.370611126963</v>
       </c>
       <c r="W29" t="n">
-        <v>1004.053401391386</v>
+        <v>790.1633809271706</v>
       </c>
       <c r="X29" t="n">
-        <v>1004.053401391386</v>
+        <v>790.1633809271706</v>
       </c>
       <c r="Y29" t="n">
-        <v>1004.053401391386</v>
+        <v>790.1633809271706</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>367.2821679010101</v>
+        <v>438.3977400777118</v>
       </c>
       <c r="C30" t="n">
-        <v>367.2821679010101</v>
+        <v>287.743509637804</v>
       </c>
       <c r="D30" t="n">
-        <v>237.1932005224904</v>
+        <v>287.743509637804</v>
       </c>
       <c r="E30" t="n">
-        <v>237.1932005224904</v>
+        <v>151.2970187486918</v>
       </c>
       <c r="F30" t="n">
-        <v>112.7613944056222</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="G30" t="n">
-        <v>112.7613944056222</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="H30" t="n">
-        <v>35.80881007221426</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I30" t="n">
         <v>26.86521263182356</v>
       </c>
       <c r="J30" t="n">
-        <v>179.8517860488108</v>
+        <v>54.01717302604602</v>
       </c>
       <c r="K30" t="n">
-        <v>277.0594471343605</v>
+        <v>151.2248341115958</v>
       </c>
       <c r="L30" t="n">
-        <v>437.8767953852011</v>
+        <v>312.0421823624364</v>
       </c>
       <c r="M30" t="n">
-        <v>638.1250198416258</v>
+        <v>512.2904068188611</v>
       </c>
       <c r="N30" t="n">
-        <v>970.5820261604424</v>
+        <v>727.2042251146946</v>
       </c>
       <c r="O30" t="n">
-        <v>1152.743316199522</v>
+        <v>909.3655151537739</v>
       </c>
       <c r="P30" t="n">
-        <v>1286.377318020765</v>
+        <v>1042.999516975018</v>
       </c>
       <c r="Q30" t="n">
         <v>1343.260631591178</v>
@@ -6569,25 +6569,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S30" t="n">
-        <v>1230.148920794168</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="T30" t="n">
-        <v>1230.148920794168</v>
+        <v>1280.355066946825</v>
       </c>
       <c r="U30" t="n">
-        <v>1020.163058345194</v>
+        <v>1070.369204497851</v>
       </c>
       <c r="V30" t="n">
-        <v>797.6230567162609</v>
+        <v>847.8292028689177</v>
       </c>
       <c r="W30" t="n">
-        <v>567.5058108495477</v>
+        <v>617.7119570022046</v>
       </c>
       <c r="X30" t="n">
-        <v>378.1987331995594</v>
+        <v>617.7119570022046</v>
       </c>
       <c r="Y30" t="n">
-        <v>367.2821679010101</v>
+        <v>438.3977400777118</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>601.6618588245819</v>
+        <v>608.8050943884994</v>
       </c>
       <c r="C31" t="n">
-        <v>601.6618588245819</v>
+        <v>608.8050943884994</v>
       </c>
       <c r="D31" t="n">
-        <v>601.6618588245819</v>
+        <v>453.1719812910141</v>
       </c>
       <c r="E31" t="n">
-        <v>601.6618588245819</v>
+        <v>297.6131691502166</v>
       </c>
       <c r="F31" t="n">
-        <v>444.3359240375548</v>
+        <v>297.6131691502166</v>
       </c>
       <c r="G31" t="n">
-        <v>277.0666733850867</v>
+        <v>130.3439184977485</v>
       </c>
       <c r="H31" t="n">
         <v>130.3439184977485</v>
@@ -6645,28 +6645,28 @@
         <v>1343.260631591178</v>
       </c>
       <c r="R31" t="n">
-        <v>1338.679928251398</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="S31" t="n">
-        <v>1153.026279221052</v>
+        <v>1157.606982560832</v>
       </c>
       <c r="T31" t="n">
-        <v>1153.026279221052</v>
+        <v>1157.606982560832</v>
       </c>
       <c r="U31" t="n">
-        <v>867.6412040037577</v>
+        <v>1157.606982560832</v>
       </c>
       <c r="V31" t="n">
-        <v>601.6618588245819</v>
+        <v>1157.606982560832</v>
       </c>
       <c r="W31" t="n">
-        <v>601.6618588245819</v>
+        <v>1157.606982560832</v>
       </c>
       <c r="X31" t="n">
-        <v>601.6618588245819</v>
+        <v>1017.125174263157</v>
       </c>
       <c r="Y31" t="n">
-        <v>601.6618588245819</v>
+        <v>794.0131130798006</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>705.2796730314085</v>
+        <v>673.678640668106</v>
       </c>
       <c r="C32" t="n">
-        <v>705.2796730314085</v>
+        <v>673.678640668106</v>
       </c>
       <c r="D32" t="n">
-        <v>705.2796730314085</v>
+        <v>673.678640668106</v>
       </c>
       <c r="E32" t="n">
-        <v>366.072442831616</v>
+        <v>673.678640668106</v>
       </c>
       <c r="F32" t="n">
-        <v>26.86521263182356</v>
+        <v>334.4714104683136</v>
       </c>
       <c r="G32" t="n">
         <v>26.86521263182356</v>
@@ -6727,25 +6727,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S32" t="n">
-        <v>1343.260631591178</v>
+        <v>1226.775891332113</v>
       </c>
       <c r="T32" t="n">
-        <v>1343.260631591178</v>
+        <v>1012.885870867898</v>
       </c>
       <c r="U32" t="n">
-        <v>1343.260631591178</v>
+        <v>1012.885870867898</v>
       </c>
       <c r="V32" t="n">
-        <v>1343.260631591178</v>
+        <v>1012.885870867898</v>
       </c>
       <c r="W32" t="n">
-        <v>1343.260631591178</v>
+        <v>673.678640668106</v>
       </c>
       <c r="X32" t="n">
-        <v>1343.260631591178</v>
+        <v>673.678640668106</v>
       </c>
       <c r="Y32" t="n">
-        <v>1044.486903231201</v>
+        <v>673.678640668106</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>177.5194430717314</v>
+        <v>562.94005000726</v>
       </c>
       <c r="C33" t="n">
-        <v>26.86521263182356</v>
+        <v>412.2858195673522</v>
       </c>
       <c r="D33" t="n">
-        <v>26.86521263182356</v>
+        <v>282.1968521888325</v>
       </c>
       <c r="E33" t="n">
-        <v>26.86521263182356</v>
+        <v>145.7503612997203</v>
       </c>
       <c r="F33" t="n">
-        <v>26.86521263182356</v>
+        <v>145.7503612997203</v>
       </c>
       <c r="G33" t="n">
         <v>26.86521263182356</v>
@@ -6782,19 +6782,19 @@
         <v>248.7521680057734</v>
       </c>
       <c r="K33" t="n">
-        <v>346.5625512559923</v>
+        <v>345.9598290913232</v>
       </c>
       <c r="L33" t="n">
-        <v>507.3798995068328</v>
+        <v>506.7771773421638</v>
       </c>
       <c r="M33" t="n">
-        <v>707.6281239632575</v>
+        <v>707.0254017985885</v>
       </c>
       <c r="N33" t="n">
-        <v>922.541942259091</v>
+        <v>921.939220094422</v>
       </c>
       <c r="O33" t="n">
-        <v>1104.70323229817</v>
+        <v>1104.100510133501</v>
       </c>
       <c r="P33" t="n">
         <v>1238.337234119414</v>
@@ -6812,19 +6812,19 @@
         <v>1343.260631591178</v>
       </c>
       <c r="U33" t="n">
-        <v>1150.59431958282</v>
+        <v>1134.160707964923</v>
       </c>
       <c r="V33" t="n">
-        <v>928.054317953887</v>
+        <v>1134.160707964923</v>
       </c>
       <c r="W33" t="n">
-        <v>697.9370720871739</v>
+        <v>904.0434620982096</v>
       </c>
       <c r="X33" t="n">
-        <v>508.6299944371855</v>
+        <v>714.7363844482213</v>
       </c>
       <c r="Y33" t="n">
-        <v>329.3157775126927</v>
+        <v>714.7363844482213</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>602.737846121982</v>
+        <v>642.1058275444716</v>
       </c>
       <c r="C34" t="n">
-        <v>602.737846121982</v>
+        <v>642.1058275444716</v>
       </c>
       <c r="D34" t="n">
-        <v>602.737846121982</v>
+        <v>486.4727144469863</v>
       </c>
       <c r="E34" t="n">
-        <v>601.6618588245819</v>
+        <v>330.9139023061888</v>
       </c>
       <c r="F34" t="n">
-        <v>444.3359240375548</v>
+        <v>173.5879675191617</v>
       </c>
       <c r="G34" t="n">
-        <v>277.0666733850867</v>
+        <v>173.5879675191617</v>
       </c>
       <c r="H34" t="n">
-        <v>130.3439184977485</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I34" t="n">
         <v>26.86521263182356</v>
@@ -6870,13 +6870,13 @@
         <v>899.3903050058757</v>
       </c>
       <c r="N34" t="n">
-        <v>975.07156859398</v>
+        <v>1230.282729335671</v>
       </c>
       <c r="O34" t="n">
-        <v>1022.402219330328</v>
+        <v>1315.151364501064</v>
       </c>
       <c r="P34" t="n">
-        <v>1259.015622802647</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="Q34" t="n">
         <v>1343.260631591178</v>
@@ -6891,19 +6891,19 @@
         <v>1343.260631591178</v>
       </c>
       <c r="U34" t="n">
-        <v>1343.260631591178</v>
+        <v>1057.875556373884</v>
       </c>
       <c r="V34" t="n">
-        <v>1343.260631591178</v>
+        <v>791.8962111947079</v>
       </c>
       <c r="W34" t="n">
-        <v>1059.930229522356</v>
+        <v>642.1058275444716</v>
       </c>
       <c r="X34" t="n">
-        <v>825.8499073053387</v>
+        <v>642.1058275444716</v>
       </c>
       <c r="Y34" t="n">
-        <v>602.737846121982</v>
+        <v>642.1058275444716</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1044.486903231201</v>
+        <v>790.1633809271706</v>
       </c>
       <c r="C35" t="n">
-        <v>705.2796730314087</v>
+        <v>450.9561507273781</v>
       </c>
       <c r="D35" t="n">
-        <v>366.0724428316161</v>
+        <v>366.072442831616</v>
       </c>
       <c r="E35" t="n">
-        <v>26.86521263182357</v>
+        <v>366.072442831616</v>
       </c>
       <c r="F35" t="n">
-        <v>26.86521263182357</v>
+        <v>366.072442831616</v>
       </c>
       <c r="G35" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="H35" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I35" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="J35" t="n">
         <v>92.99015204997841</v>
@@ -6943,19 +6943,19 @@
         <v>225.0743319754415</v>
       </c>
       <c r="L35" t="n">
-        <v>412.9225820627735</v>
+        <v>412.9225820627734</v>
       </c>
       <c r="M35" t="n">
-        <v>642.5250891064582</v>
+        <v>642.525089106458</v>
       </c>
       <c r="N35" t="n">
-        <v>878.8417802023818</v>
+        <v>878.8417802023814</v>
       </c>
       <c r="O35" t="n">
-        <v>1093.321010641008</v>
+        <v>1093.321010641007</v>
       </c>
       <c r="P35" t="n">
-        <v>1253.948421109685</v>
+        <v>1253.948421109684</v>
       </c>
       <c r="Q35" t="n">
         <v>1343.260631591178</v>
@@ -6967,22 +6967,22 @@
         <v>1343.260631591178</v>
       </c>
       <c r="T35" t="n">
-        <v>1300.063996803888</v>
+        <v>1129.370611126963</v>
       </c>
       <c r="U35" t="n">
-        <v>1044.486903231201</v>
+        <v>1129.370611126963</v>
       </c>
       <c r="V35" t="n">
-        <v>1044.486903231201</v>
+        <v>1129.370611126963</v>
       </c>
       <c r="W35" t="n">
-        <v>1044.486903231201</v>
+        <v>1129.370611126963</v>
       </c>
       <c r="X35" t="n">
-        <v>1044.486903231201</v>
+        <v>1129.370611126963</v>
       </c>
       <c r="Y35" t="n">
-        <v>1044.486903231201</v>
+        <v>790.1633809271706</v>
       </c>
     </row>
     <row r="36">
@@ -6992,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>773.2680378979268</v>
+        <v>356.0783491903871</v>
       </c>
       <c r="C36" t="n">
-        <v>622.613807458019</v>
+        <v>356.0783491903871</v>
       </c>
       <c r="D36" t="n">
-        <v>492.5248400794994</v>
+        <v>356.0783491903871</v>
       </c>
       <c r="E36" t="n">
         <v>356.0783491903871</v>
@@ -7010,10 +7010,10 @@
         <v>112.7613944056222</v>
       </c>
       <c r="H36" t="n">
-        <v>35.80881007221428</v>
+        <v>35.80881007221426</v>
       </c>
       <c r="I36" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="J36" t="n">
         <v>248.7521680057734</v>
@@ -7046,22 +7046,22 @@
         <v>1343.260631591178</v>
       </c>
       <c r="T36" t="n">
-        <v>1326.918590892314</v>
+        <v>1171.011561238155</v>
       </c>
       <c r="U36" t="n">
-        <v>1326.918590892314</v>
+        <v>961.0256987891805</v>
       </c>
       <c r="V36" t="n">
-        <v>1104.378589263381</v>
+        <v>738.4856971602476</v>
       </c>
       <c r="W36" t="n">
-        <v>1104.378589263381</v>
+        <v>687.1889005558412</v>
       </c>
       <c r="X36" t="n">
-        <v>1104.378589263381</v>
+        <v>687.1889005558412</v>
       </c>
       <c r="Y36" t="n">
-        <v>925.0643723388881</v>
+        <v>507.8746836313484</v>
       </c>
     </row>
     <row r="37">
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>327.009674760385</v>
+        <v>151.5504822515051</v>
       </c>
       <c r="C37" t="n">
-        <v>327.009674760385</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="D37" t="n">
-        <v>171.3765616628997</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="E37" t="n">
-        <v>171.3765616628997</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="F37" t="n">
-        <v>171.3765616628997</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="G37" t="n">
-        <v>171.3765616628997</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3439184977485</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I37" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="J37" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="K37" t="n">
-        <v>55.98452989802861</v>
+        <v>55.9845298980286</v>
       </c>
       <c r="L37" t="n">
         <v>363.6119281359395</v>
       </c>
       <c r="M37" t="n">
-        <v>685.1267398994522</v>
+        <v>685.1267398994518</v>
       </c>
       <c r="N37" t="n">
         <v>1016.019164229248</v>
       </c>
       <c r="O37" t="n">
-        <v>1315.151364501065</v>
+        <v>1315.151364501064</v>
       </c>
       <c r="P37" t="n">
         <v>1343.260631591178</v>
@@ -7119,28 +7119,28 @@
         <v>1343.260631591178</v>
       </c>
       <c r="R37" t="n">
-        <v>1263.639977360439</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="S37" t="n">
-        <v>1077.986328330093</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="T37" t="n">
-        <v>846.4750721946963</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="U37" t="n">
-        <v>561.0899969774019</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="V37" t="n">
-        <v>561.0899969774019</v>
+        <v>1077.281286412002</v>
       </c>
       <c r="W37" t="n">
-        <v>561.0899969774019</v>
+        <v>793.95088434318</v>
       </c>
       <c r="X37" t="n">
-        <v>327.009674760385</v>
+        <v>559.870562126163</v>
       </c>
       <c r="Y37" t="n">
-        <v>327.009674760385</v>
+        <v>336.7585009428063</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>705.2796730314085</v>
+        <v>450.9561507273784</v>
       </c>
       <c r="C38" t="n">
-        <v>705.2796730314085</v>
+        <v>450.9561507273784</v>
       </c>
       <c r="D38" t="n">
-        <v>705.2796730314085</v>
+        <v>450.9561507273784</v>
       </c>
       <c r="E38" t="n">
-        <v>366.072442831616</v>
+        <v>450.9561507273784</v>
       </c>
       <c r="F38" t="n">
-        <v>26.86521263182356</v>
+        <v>111.7489205275859</v>
       </c>
       <c r="G38" t="n">
-        <v>26.86521263182356</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="H38" t="n">
-        <v>26.86521263182356</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="I38" t="n">
-        <v>26.86521263182356</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="J38" t="n">
         <v>92.99015204997841</v>
       </c>
       <c r="K38" t="n">
-        <v>225.0743319754415</v>
+        <v>225.0743319754413</v>
       </c>
       <c r="L38" t="n">
         <v>412.9225820627732</v>
@@ -7186,7 +7186,7 @@
         <v>642.5250891064579</v>
       </c>
       <c r="N38" t="n">
-        <v>878.8417802023815</v>
+        <v>878.8417802023816</v>
       </c>
       <c r="O38" t="n">
         <v>1093.321010641008</v>
@@ -7201,25 +7201,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S38" t="n">
-        <v>1226.775891332113</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="T38" t="n">
-        <v>1012.885870867898</v>
+        <v>1129.370611126963</v>
       </c>
       <c r="U38" t="n">
-        <v>757.3087772952119</v>
+        <v>1129.370611126963</v>
       </c>
       <c r="V38" t="n">
-        <v>705.2796730314085</v>
+        <v>1129.370611126963</v>
       </c>
       <c r="W38" t="n">
-        <v>705.2796730314085</v>
+        <v>1129.370611126963</v>
       </c>
       <c r="X38" t="n">
-        <v>705.2796730314085</v>
+        <v>790.1633809271709</v>
       </c>
       <c r="Y38" t="n">
-        <v>705.2796730314085</v>
+        <v>790.1633809271709</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>773.2680378979268</v>
+        <v>103.8177969652315</v>
       </c>
       <c r="C39" t="n">
-        <v>622.613807458019</v>
+        <v>103.8177969652315</v>
       </c>
       <c r="D39" t="n">
-        <v>492.5248400794994</v>
+        <v>103.8177969652315</v>
       </c>
       <c r="E39" t="n">
-        <v>356.0783491903871</v>
+        <v>103.8177969652315</v>
       </c>
       <c r="F39" t="n">
-        <v>231.6465430735189</v>
+        <v>103.8177969652315</v>
       </c>
       <c r="G39" t="n">
-        <v>112.7613944056222</v>
+        <v>103.8177969652315</v>
       </c>
       <c r="H39" t="n">
-        <v>35.80881007221426</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="I39" t="n">
-        <v>26.86521263182356</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="J39" t="n">
-        <v>131.8117021474593</v>
+        <v>54.01717302604602</v>
       </c>
       <c r="K39" t="n">
-        <v>229.0193632330091</v>
+        <v>151.2248341115958</v>
       </c>
       <c r="L39" t="n">
-        <v>389.8367114838497</v>
+        <v>312.0421823624364</v>
       </c>
       <c r="M39" t="n">
-        <v>590.0849359402744</v>
+        <v>512.2904068188611</v>
       </c>
       <c r="N39" t="n">
-        <v>922.541942259091</v>
+        <v>727.2042251146946</v>
       </c>
       <c r="O39" t="n">
-        <v>1104.70323229817</v>
+        <v>909.3655151537739</v>
       </c>
       <c r="P39" t="n">
-        <v>1238.337234119414</v>
+        <v>1042.999516975018</v>
       </c>
       <c r="Q39" t="n">
-        <v>1295.220547689827</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="R39" t="n">
         <v>1343.260631591178</v>
       </c>
       <c r="S39" t="n">
-        <v>1343.260631591178</v>
+        <v>1230.148920794168</v>
       </c>
       <c r="T39" t="n">
-        <v>1343.260631591178</v>
+        <v>1057.899850441145</v>
       </c>
       <c r="U39" t="n">
-        <v>1343.260631591178</v>
+        <v>925.0963390353587</v>
       </c>
       <c r="V39" t="n">
-        <v>1343.260631591178</v>
+        <v>702.5563374064258</v>
       </c>
       <c r="W39" t="n">
-        <v>1113.143385724465</v>
+        <v>472.4390915397126</v>
       </c>
       <c r="X39" t="n">
-        <v>1104.378589263381</v>
+        <v>283.1320138897242</v>
       </c>
       <c r="Y39" t="n">
-        <v>925.0643723388881</v>
+        <v>103.8177969652315</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>508.2622558041171</v>
+        <v>809.3750781969395</v>
       </c>
       <c r="C40" t="n">
-        <v>338.0571378701063</v>
+        <v>809.3750781969395</v>
       </c>
       <c r="D40" t="n">
-        <v>182.4240247726211</v>
+        <v>653.7419650994543</v>
       </c>
       <c r="E40" t="n">
-        <v>26.86521263182356</v>
+        <v>498.1831529586569</v>
       </c>
       <c r="F40" t="n">
-        <v>26.86521263182356</v>
+        <v>340.8572181716298</v>
       </c>
       <c r="G40" t="n">
-        <v>26.86521263182356</v>
+        <v>173.5879675191617</v>
       </c>
       <c r="H40" t="n">
-        <v>26.86521263182356</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="I40" t="n">
-        <v>26.86521263182356</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="J40" t="n">
-        <v>26.86521263182356</v>
+        <v>65.33151044026181</v>
       </c>
       <c r="K40" t="n">
-        <v>55.9845298980286</v>
+        <v>259.3059004491482</v>
       </c>
       <c r="L40" t="n">
-        <v>330.4759616548287</v>
+        <v>566.9332986870591</v>
       </c>
       <c r="M40" t="n">
-        <v>392.3775947287155</v>
+        <v>899.3903050058757</v>
       </c>
       <c r="N40" t="n">
-        <v>723.2700190585113</v>
+        <v>1230.282729335671</v>
       </c>
       <c r="O40" t="n">
-        <v>1022.402219330328</v>
+        <v>1315.151364501065</v>
       </c>
       <c r="P40" t="n">
-        <v>1259.015622802647</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="Q40" t="n">
         <v>1343.260631591178</v>
       </c>
       <c r="R40" t="n">
-        <v>1263.639977360438</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="S40" t="n">
-        <v>1263.639977360438</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="T40" t="n">
-        <v>1263.639977360438</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="U40" t="n">
-        <v>978.2549021431439</v>
+        <v>1057.875556373884</v>
       </c>
       <c r="V40" t="n">
-        <v>978.2549021431439</v>
+        <v>1057.875556373884</v>
       </c>
       <c r="W40" t="n">
-        <v>978.2549021431439</v>
+        <v>1057.875556373884</v>
       </c>
       <c r="X40" t="n">
-        <v>916.5823356787751</v>
+        <v>1057.875556373884</v>
       </c>
       <c r="Y40" t="n">
-        <v>693.4702744954184</v>
+        <v>834.7634951905272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1004.053401391386</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="C41" t="n">
-        <v>1004.053401391386</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="D41" t="n">
-        <v>1004.053401391386</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="E41" t="n">
-        <v>664.8461711915932</v>
+        <v>1006.878572085024</v>
       </c>
       <c r="F41" t="n">
-        <v>325.6389409918007</v>
+        <v>667.671341885232</v>
       </c>
       <c r="G41" t="n">
-        <v>26.86521263182356</v>
+        <v>328.4641116854395</v>
       </c>
       <c r="H41" t="n">
         <v>26.86521263182356</v>
@@ -7414,19 +7414,19 @@
         <v>92.99015204997841</v>
       </c>
       <c r="K41" t="n">
-        <v>225.0743319754415</v>
+        <v>225.0743319754416</v>
       </c>
       <c r="L41" t="n">
         <v>412.9225820627735</v>
       </c>
       <c r="M41" t="n">
-        <v>642.5250891064582</v>
+        <v>642.525089106458</v>
       </c>
       <c r="N41" t="n">
-        <v>878.8417802023818</v>
+        <v>878.8417802023815</v>
       </c>
       <c r="O41" t="n">
-        <v>1093.321010641008</v>
+        <v>1093.321010641007</v>
       </c>
       <c r="P41" t="n">
         <v>1253.948421109684</v>
@@ -7453,10 +7453,10 @@
         <v>1343.260631591178</v>
       </c>
       <c r="X41" t="n">
-        <v>1004.053401391386</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="Y41" t="n">
-        <v>1004.053401391386</v>
+        <v>1343.260631591178</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>177.5194430717314</v>
+        <v>275.8393286782399</v>
       </c>
       <c r="C42" t="n">
-        <v>26.86521263182356</v>
+        <v>275.8393286782399</v>
       </c>
       <c r="D42" t="n">
-        <v>26.86521263182356</v>
+        <v>145.7503612997203</v>
       </c>
       <c r="E42" t="n">
-        <v>26.86521263182356</v>
+        <v>145.7503612997203</v>
       </c>
       <c r="F42" t="n">
-        <v>26.86521263182356</v>
+        <v>145.7503612997203</v>
       </c>
       <c r="G42" t="n">
         <v>26.86521263182356</v>
@@ -7499,16 +7499,16 @@
         <v>506.7771773421638</v>
       </c>
       <c r="M42" t="n">
-        <v>707.6281239632575</v>
+        <v>707.0254017985885</v>
       </c>
       <c r="N42" t="n">
-        <v>922.541942259091</v>
+        <v>921.939220094422</v>
       </c>
       <c r="O42" t="n">
-        <v>1104.70323229817</v>
+        <v>1104.100510133501</v>
       </c>
       <c r="P42" t="n">
-        <v>1238.337234119414</v>
+        <v>1237.734511954745</v>
       </c>
       <c r="Q42" t="n">
         <v>1295.220547689827</v>
@@ -7517,25 +7517,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S42" t="n">
-        <v>1343.260631591178</v>
+        <v>1269.592989988314</v>
       </c>
       <c r="T42" t="n">
-        <v>1343.260631591178</v>
+        <v>1269.592989988314</v>
       </c>
       <c r="U42" t="n">
-        <v>1150.59431958282</v>
+        <v>1059.60712753934</v>
       </c>
       <c r="V42" t="n">
-        <v>928.054317953887</v>
+        <v>837.0671259104072</v>
       </c>
       <c r="W42" t="n">
-        <v>697.9370720871739</v>
+        <v>606.9498800436941</v>
       </c>
       <c r="X42" t="n">
-        <v>508.6299944371855</v>
+        <v>606.9498800436941</v>
       </c>
       <c r="Y42" t="n">
-        <v>329.3157775126927</v>
+        <v>427.6356631192012</v>
       </c>
     </row>
     <row r="43">
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>406.6303289911243</v>
+        <v>194.1344632842917</v>
       </c>
       <c r="C43" t="n">
-        <v>406.6303289911243</v>
+        <v>194.1344632842917</v>
       </c>
       <c r="D43" t="n">
-        <v>406.6303289911243</v>
+        <v>194.1344632842917</v>
       </c>
       <c r="E43" t="n">
-        <v>406.6303289911243</v>
+        <v>194.1344632842917</v>
       </c>
       <c r="F43" t="n">
-        <v>406.6303289911243</v>
+        <v>194.1344632842917</v>
       </c>
       <c r="G43" t="n">
-        <v>277.0666733850867</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3439184977485</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I43" t="n">
         <v>26.86521263182356</v>
       </c>
       <c r="J43" t="n">
-        <v>65.33151044026181</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="K43" t="n">
-        <v>94.45082770646684</v>
+        <v>55.9845298980286</v>
       </c>
       <c r="L43" t="n">
-        <v>268.4247247921039</v>
+        <v>363.6119281359395</v>
       </c>
       <c r="M43" t="n">
-        <v>600.8817311109204</v>
+        <v>685.1267398994518</v>
       </c>
       <c r="N43" t="n">
-        <v>931.7741554407162</v>
+        <v>1016.019164229248</v>
       </c>
       <c r="O43" t="n">
-        <v>1230.906355712533</v>
+        <v>1315.151364501064</v>
       </c>
       <c r="P43" t="n">
-        <v>1259.015622802647</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="Q43" t="n">
         <v>1343.260631591178</v>
@@ -7596,25 +7596,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S43" t="n">
-        <v>1157.606982560832</v>
+        <v>1262.909607966601</v>
       </c>
       <c r="T43" t="n">
-        <v>926.0957264254356</v>
+        <v>1262.909607966601</v>
       </c>
       <c r="U43" t="n">
-        <v>640.7106512081413</v>
+        <v>977.5245327493068</v>
       </c>
       <c r="V43" t="n">
-        <v>640.7106512081413</v>
+        <v>711.545187570131</v>
       </c>
       <c r="W43" t="n">
-        <v>640.7106512081413</v>
+        <v>428.2147855013086</v>
       </c>
       <c r="X43" t="n">
-        <v>406.6303289911243</v>
+        <v>194.1344632842917</v>
       </c>
       <c r="Y43" t="n">
-        <v>406.6303289911243</v>
+        <v>194.1344632842917</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>748.4763078186992</v>
+      </c>
+      <c r="C44" t="n">
+        <v>748.4763078186992</v>
+      </c>
+      <c r="D44" t="n">
+        <v>748.4763078186992</v>
+      </c>
+      <c r="E44" t="n">
+        <v>409.2690776189067</v>
+      </c>
+      <c r="F44" t="n">
         <v>366.072442831616</v>
-      </c>
-      <c r="C44" t="n">
-        <v>366.072442831616</v>
-      </c>
-      <c r="D44" t="n">
-        <v>26.86521263182356</v>
-      </c>
-      <c r="E44" t="n">
-        <v>26.86521263182356</v>
-      </c>
-      <c r="F44" t="n">
-        <v>26.86521263182356</v>
       </c>
       <c r="G44" t="n">
         <v>26.86521263182356</v>
@@ -7648,19 +7648,19 @@
         <v>26.86521263182356</v>
       </c>
       <c r="J44" t="n">
-        <v>92.99015204997818</v>
+        <v>92.99015204997838</v>
       </c>
       <c r="K44" t="n">
-        <v>225.0743319754413</v>
+        <v>225.0743319754415</v>
       </c>
       <c r="L44" t="n">
-        <v>412.9225820627732</v>
+        <v>412.9225820627735</v>
       </c>
       <c r="M44" t="n">
-        <v>642.5250891064579</v>
+        <v>642.5250891064582</v>
       </c>
       <c r="N44" t="n">
-        <v>878.8417802023815</v>
+        <v>878.8417802023818</v>
       </c>
       <c r="O44" t="n">
         <v>1093.321010641008</v>
@@ -7681,19 +7681,19 @@
         <v>1343.260631591178</v>
       </c>
       <c r="U44" t="n">
-        <v>1343.260631591178</v>
+        <v>1087.683538018492</v>
       </c>
       <c r="V44" t="n">
-        <v>1004.053401391386</v>
+        <v>1087.683538018492</v>
       </c>
       <c r="W44" t="n">
-        <v>664.8461711915932</v>
+        <v>1087.683538018492</v>
       </c>
       <c r="X44" t="n">
-        <v>664.8461711915932</v>
+        <v>1087.683538018492</v>
       </c>
       <c r="Y44" t="n">
-        <v>366.072442831616</v>
+        <v>1087.683538018492</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>773.2680378979268</v>
+        <v>296.6871070781947</v>
       </c>
       <c r="C45" t="n">
-        <v>622.613807458019</v>
+        <v>296.6871070781947</v>
       </c>
       <c r="D45" t="n">
-        <v>492.5248400794994</v>
+        <v>296.6871070781947</v>
       </c>
       <c r="E45" t="n">
-        <v>356.0783491903871</v>
+        <v>160.2406161890825</v>
       </c>
       <c r="F45" t="n">
-        <v>231.6465430735189</v>
+        <v>35.80881007221426</v>
       </c>
       <c r="G45" t="n">
-        <v>112.7613944056222</v>
+        <v>35.80881007221426</v>
       </c>
       <c r="H45" t="n">
         <v>35.80881007221426</v>
@@ -7727,13 +7727,13 @@
         <v>26.86521263182356</v>
       </c>
       <c r="J45" t="n">
-        <v>54.01717302604602</v>
+        <v>248.7521680057734</v>
       </c>
       <c r="K45" t="n">
-        <v>151.2248341115958</v>
+        <v>346.5625512559923</v>
       </c>
       <c r="L45" t="n">
-        <v>483.6818404304124</v>
+        <v>507.3798995068328</v>
       </c>
       <c r="M45" t="n">
         <v>707.6281239632575</v>
@@ -7754,25 +7754,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S45" t="n">
-        <v>1343.260631591178</v>
+        <v>1230.148920794168</v>
       </c>
       <c r="T45" t="n">
-        <v>1326.918590892314</v>
+        <v>1057.899850441145</v>
       </c>
       <c r="U45" t="n">
-        <v>1326.918590892314</v>
+        <v>901.1406890148022</v>
       </c>
       <c r="V45" t="n">
-        <v>1104.378589263381</v>
+        <v>678.6006873858693</v>
       </c>
       <c r="W45" t="n">
-        <v>1104.378589263381</v>
+        <v>448.4834415191561</v>
       </c>
       <c r="X45" t="n">
-        <v>1104.378589263381</v>
+        <v>448.4834415191561</v>
       </c>
       <c r="Y45" t="n">
-        <v>925.0643723388881</v>
+        <v>448.4834415191561</v>
       </c>
     </row>
     <row r="46">
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1083.058901996875</v>
+        <v>349.767576381777</v>
       </c>
       <c r="C46" t="n">
-        <v>912.8537840628646</v>
+        <v>349.767576381777</v>
       </c>
       <c r="D46" t="n">
-        <v>757.2206709653794</v>
+        <v>194.1344632842917</v>
       </c>
       <c r="E46" t="n">
-        <v>601.6618588245819</v>
+        <v>194.1344632842917</v>
       </c>
       <c r="F46" t="n">
-        <v>444.3359240375548</v>
+        <v>194.1344632842917</v>
       </c>
       <c r="G46" t="n">
-        <v>277.0666733850867</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3439184977485</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I46" t="n">
         <v>26.86521263182356</v>
       </c>
       <c r="J46" t="n">
-        <v>26.86521263182356</v>
+        <v>65.33151044026181</v>
       </c>
       <c r="K46" t="n">
-        <v>55.9845298980286</v>
+        <v>259.3059004491482</v>
       </c>
       <c r="L46" t="n">
-        <v>352.6697335806352</v>
+        <v>566.9332986870591</v>
       </c>
       <c r="M46" t="n">
-        <v>685.1267398994518</v>
+        <v>899.3903050058757</v>
       </c>
       <c r="N46" t="n">
-        <v>1016.019164229248</v>
+        <v>975.07156859398</v>
       </c>
       <c r="O46" t="n">
-        <v>1315.151364501064</v>
+        <v>1022.402219330328</v>
       </c>
       <c r="P46" t="n">
-        <v>1343.260631591178</v>
+        <v>1259.015622802647</v>
       </c>
       <c r="Q46" t="n">
         <v>1343.260631591178</v>
@@ -7833,25 +7833,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S46" t="n">
-        <v>1343.260631591178</v>
+        <v>1157.606982560832</v>
       </c>
       <c r="T46" t="n">
-        <v>1111.749375455781</v>
+        <v>926.0957264254356</v>
       </c>
       <c r="U46" t="n">
-        <v>1111.749375455781</v>
+        <v>640.7106512081413</v>
       </c>
       <c r="V46" t="n">
-        <v>1111.749375455781</v>
+        <v>633.0979784505994</v>
       </c>
       <c r="W46" t="n">
-        <v>1111.749375455781</v>
+        <v>349.767576381777</v>
       </c>
       <c r="X46" t="n">
-        <v>1111.749375455781</v>
+        <v>349.767576381777</v>
       </c>
       <c r="Y46" t="n">
-        <v>1111.749375455781</v>
+        <v>349.767576381777</v>
       </c>
     </row>
   </sheetData>
@@ -8458,10 +8458,10 @@
         <v>65.01946517481471</v>
       </c>
       <c r="L8" t="n">
-        <v>56.43396646106821</v>
+        <v>56.4339664610682</v>
       </c>
       <c r="M8" t="n">
-        <v>42.0005963606051</v>
+        <v>42.00059636060509</v>
       </c>
       <c r="N8" t="n">
         <v>39.65094179247474</v>
@@ -8470,7 +8470,7 @@
         <v>46.19673452270656</v>
       </c>
       <c r="P8" t="n">
-        <v>62.08001639703512</v>
+        <v>62.08001639703511</v>
       </c>
       <c r="Q8" t="n">
         <v>78.24807792626756</v>
@@ -8531,16 +8531,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>51.43211845760856</v>
+        <v>51.43211845760855</v>
       </c>
       <c r="K9" t="n">
-        <v>36.59190862205907</v>
+        <v>36.59190862205906</v>
       </c>
       <c r="L9" t="n">
         <v>18.78854721703357</v>
       </c>
       <c r="M9" t="n">
-        <v>9.21629354317848</v>
+        <v>9.216293543178466</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>14.58875442338393</v>
       </c>
       <c r="P9" t="n">
-        <v>24.40218892352033</v>
+        <v>24.40218892352032</v>
       </c>
       <c r="Q9" t="n">
         <v>49.08744703089221</v>
@@ -8616,7 +8616,7 @@
         <v>51.88619524178843</v>
       </c>
       <c r="L10" t="n">
-        <v>46.76134641422897</v>
+        <v>46.76134641422896</v>
       </c>
       <c r="M10" t="n">
         <v>47.16400664275908</v>
@@ -8625,10 +8625,10 @@
         <v>40.88357032611205</v>
       </c>
       <c r="O10" t="n">
-        <v>51.09947095584661</v>
+        <v>51.0994709558466</v>
       </c>
       <c r="P10" t="n">
-        <v>56.23986070246485</v>
+        <v>56.23986070246484</v>
       </c>
       <c r="Q10" t="n">
         <v>75.43459031707346</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>3.599768540391295</v>
+        <v>3.599768540391267</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8780,13 +8780,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>45.49697057036303</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>151.8138548280176</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>197.3108253983805</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8847,16 +8847,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>13.61769019229867</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K13" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>37.03269086298288</v>
       </c>
       <c r="M13" t="n">
-        <v>264.0798244638283</v>
+        <v>273.2882558029594</v>
       </c>
       <c r="N13" t="n">
         <v>268.0356382773604</v>
@@ -8868,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>101.9350150692923</v>
+        <v>16.83904659602835</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>3.599768540391295</v>
+        <v>3.599768540391267</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>23.93743341052595</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>173.3733919878546</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>245.8361626724724</v>
       </c>
       <c r="R15" t="n">
-        <v>71.01380490566048</v>
+        <v>22.48846763156808</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,25 +9084,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>13.61769019229867</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K16" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M16" t="n">
-        <v>273.2882558029594</v>
+        <v>29.18984329530956</v>
       </c>
       <c r="N16" t="n">
-        <v>268.0356382773604</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>245.1365681916456</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q16" t="n">
         <v>101.9350150692923</v>
@@ -9242,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>78.58033244587222</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>118.7304929525082</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>245.8361626724724</v>
       </c>
       <c r="R18" t="n">
-        <v>71.01380490566048</v>
+        <v>22.48846763156808</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>52.4725364634484</v>
+        <v>13.61769019229865</v>
       </c>
       <c r="K19" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M19" t="n">
-        <v>273.2882558029594</v>
+        <v>262.2355340299247</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O19" t="n">
-        <v>10.24658702312695</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P19" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>101.9350150692923</v>
+        <v>16.83904659602835</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>133.5442241034262</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>63.76660129495426</v>
+        <v>245.8361626724724</v>
       </c>
       <c r="R21" t="n">
-        <v>71.01380490566048</v>
+        <v>22.48846763156808</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9564,10 +9564,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>242.4078126317906</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M22" t="n">
-        <v>273.2882558029594</v>
+        <v>262.2355340299247</v>
       </c>
       <c r="N22" t="n">
         <v>268.0356382773604</v>
@@ -9716,10 +9716,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6088102673427045</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>245.8361626724724</v>
       </c>
       <c r="R24" t="n">
-        <v>71.01380490566048</v>
+        <v>22.48846763156808</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>52.4725364634484</v>
+        <v>13.61769019229865</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -9804,13 +9804,13 @@
         <v>253.4605344048249</v>
       </c>
       <c r="M25" t="n">
-        <v>273.2882558029594</v>
+        <v>262.2355340299247</v>
       </c>
       <c r="N25" t="n">
         <v>268.0356382773604</v>
       </c>
       <c r="O25" t="n">
-        <v>204.4374314865925</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>8.210561426748789</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>237.6256012457241</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>245.8361626724724</v>
       </c>
       <c r="R27" t="n">
         <v>22.48846763156808</v>
@@ -10041,7 +10041,7 @@
         <v>253.4605344048249</v>
       </c>
       <c r="M28" t="n">
-        <v>262.2355340299252</v>
+        <v>262.2355340299247</v>
       </c>
       <c r="N28" t="n">
         <v>268.0356382773604</v>
@@ -10190,7 +10190,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>127.1056697199644</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>118.7304929525081</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>245.8361626724724</v>
       </c>
       <c r="R30" t="n">
         <v>22.48846763156808</v>
@@ -10430,7 +10430,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>0.6088102673424913</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>0.6088102673422497</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10518,16 +10518,16 @@
         <v>273.2882558029593</v>
       </c>
       <c r="N34" t="n">
-        <v>10.24658702312666</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>37.91715598893434</v>
       </c>
       <c r="P34" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>101.9350150692923</v>
+        <v>16.83904659602835</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.6088102673427684</v>
+        <v>0.6088102673423066</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10752,7 +10752,7 @@
         <v>253.4605344048249</v>
       </c>
       <c r="M37" t="n">
-        <v>262.2355340299252</v>
+        <v>262.2355340299247</v>
       </c>
       <c r="N37" t="n">
         <v>268.0356382773604</v>
@@ -10901,7 +10901,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>78.58033244587199</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>118.7304929525081</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>245.8361626724727</v>
       </c>
       <c r="R39" t="n">
-        <v>71.01380490566048</v>
+        <v>22.48846763156808</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>13.61769019229865</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L40" t="n">
-        <v>219.9898611915816</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>273.2882558029594</v>
       </c>
       <c r="N40" t="n">
         <v>268.0356382773604</v>
       </c>
       <c r="O40" t="n">
-        <v>254.3449995307766</v>
+        <v>37.91715598893457</v>
       </c>
       <c r="P40" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>101.9350150692923</v>
+        <v>16.83904659602835</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.6088102673424487</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>0.6088102673423066</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11217,16 +11217,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>52.4725364634484</v>
+        <v>13.61769019229865</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>118.4569978873766</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M43" t="n">
-        <v>273.2882558029593</v>
+        <v>262.2355340299247</v>
       </c>
       <c r="N43" t="n">
         <v>268.0356382773604</v>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>101.9350150692923</v>
+        <v>16.83904659602835</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,16 +11375,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>0.6088102673424913</v>
       </c>
       <c r="L45" t="n">
-        <v>173.3733919878545</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>23.93743341052564</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>13.61769019229865</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L46" t="n">
-        <v>242.4078126317903</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M46" t="n">
         <v>273.2882558029593</v>
       </c>
       <c r="N46" t="n">
-        <v>268.0356382773604</v>
+        <v>10.24658702312666</v>
       </c>
       <c r="O46" t="n">
-        <v>254.3449995307766</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.83904659602835</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>8.417632379864196</v>
+        <v>8.417632379864187</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>371.2766354414873</v>
+        <v>355.3488193258643</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>298.5829100630798</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>53.16006395033763</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>2.870583305722221</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>31.47388678360079</v>
       </c>
       <c r="X11" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>56.71064409081026</v>
       </c>
     </row>
     <row r="12">
@@ -23339,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23348,16 +23348,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>117.6962971812177</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>76.18305849007386</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>8.854161465986799</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,22 +23387,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>111.9805936890401</v>
+        <v>56.435357301208</v>
       </c>
       <c r="T12" t="n">
-        <v>121.4473646184623</v>
+        <v>170.5265796494932</v>
       </c>
       <c r="U12" t="n">
-        <v>207.8860038244843</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>122.4565967430966</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5965581459434</v>
@@ -23469,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>229.1961435740429</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5312244651214</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>14.93411327339584</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23503,19 +23503,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>65.53945072352883</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>76.91033618752743</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>71.04247464923537</v>
+        <v>406.8576325470299</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>298.5829100630798</v>
       </c>
       <c r="I14" t="n">
-        <v>53.16006395033764</v>
+        <v>53.16006395033763</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,16 +23554,16 @@
         <v>253.0213226369596</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>2.870583305722278</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>31.4738867836009</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>49.74292111847922</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>96.73981091222754</v>
       </c>
     </row>
     <row r="15">
@@ -23576,22 +23576,22 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>111.9409668031266</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>117.6962971812177</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>76.18305849007386</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23627,19 +23627,19 @@
         <v>111.9805936890401</v>
       </c>
       <c r="T15" t="n">
-        <v>170.5265796494932</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>207.8860038244843</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>178.7368583770151</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5965581459434</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.2555273384648</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>102.4439188072657</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>78.82444768843244</v>
+        <v>78.82444768843243</v>
       </c>
       <c r="S16" t="n">
         <v>183.7971125400421</v>
       </c>
       <c r="T16" t="n">
-        <v>229.1961435740429</v>
+        <v>128.9461690556012</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5312244651214</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>146.6371667775515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23746,13 +23746,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>406.8576325470299</v>
+        <v>111.0716414706526</v>
       </c>
       <c r="H17" t="n">
         <v>298.5829100630798</v>
       </c>
       <c r="I17" t="n">
-        <v>1.651250729172048</v>
+        <v>53.16006395033763</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>115.319892856474</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.7511202595727</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.0213226369596</v>
       </c>
       <c r="V17" t="n">
-        <v>2.870583305722221</v>
+        <v>2.870583305722278</v>
       </c>
       <c r="W17" t="n">
-        <v>31.47388678360085</v>
+        <v>31.4738867836009</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>49.74292111847922</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -23813,22 +23813,22 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C18" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>117.6962971812177</v>
+        <v>50.98550626805344</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>76.18305849007386</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>111.9805936890401</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23876,10 +23876,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y18" t="n">
-        <v>85.26468899874297</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="19">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>129.9683220298614</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
         <v>154.0032240193895</v>
@@ -23940,25 +23940,25 @@
         <v>78.82444768843243</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>159.5339815772905</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>229.1961435740429</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>60.67464035648828</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>45.77155959770431</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>62.74253173682638</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>248.1872119810416</v>
       </c>
       <c r="G20" t="n">
-        <v>406.8576325470299</v>
+        <v>71.04247464923543</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>53.16006395033763</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>115.319892856474</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.7511202595727</v>
       </c>
       <c r="U20" t="n">
         <v>253.0213226369596</v>
@@ -24031,7 +24031,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>246.021926029876</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -24050,7 +24050,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24065,10 +24065,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>19.60432581447626</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>8.854161465986799</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,16 +24098,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>111.9805936890401</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>170.5265796494932</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>207.8860038244843</v>
       </c>
       <c r="V21" t="n">
-        <v>220.3146016126436</v>
+        <v>204.6114993408837</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="22">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
@@ -24138,16 +24138,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>119.7683522669404</v>
+        <v>165.5965581459434</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>145.2555273384648</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>102.4439188072657</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>229.1961435740429</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>68.25309223622926</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>60.67464035648834</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
@@ -24214,13 +24214,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>62.74253173682638</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>76.91033618752749</v>
       </c>
       <c r="G23" t="n">
-        <v>406.8576325470299</v>
+        <v>111.0716414706526</v>
       </c>
       <c r="H23" t="n">
         <v>298.5829100630798</v>
@@ -24265,16 +24265,16 @@
         <v>253.0213226369596</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>2.870583305722278</v>
       </c>
       <c r="W23" t="n">
-        <v>71.50305360501801</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>49.74292111847916</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>56.71064409081032</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24287,13 +24287,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24305,7 +24305,7 @@
         <v>76.18305849007386</v>
       </c>
       <c r="I24" t="n">
-        <v>8.854161465986799</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>51.16643812121978</v>
+        <v>111.9805936890401</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24344,13 +24344,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>227.816073408046</v>
+        <v>170.5668959718806</v>
       </c>
       <c r="X24" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>182.6489440243029</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5965581459434</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>145.2555273384648</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.40664152161781</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>78.82444768843243</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>183.7971125400421</v>
       </c>
       <c r="T25" t="n">
         <v>229.1961435740429</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5312244651214</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
@@ -24429,7 +24429,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>60.67464035648828</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>53.42858858430407</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
@@ -24457,7 +24457,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>406.8576325470299</v>
+        <v>71.04247464923543</v>
       </c>
       <c r="H26" t="n">
         <v>298.5829100630798</v>
@@ -24496,7 +24496,7 @@
         <v>115.319892856474</v>
       </c>
       <c r="T26" t="n">
-        <v>211.7511202595727</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>49.7429211184791</v>
+        <v>49.74292111847922</v>
       </c>
       <c r="Y26" t="n">
-        <v>349.761133549187</v>
+        <v>225.6970959109655</v>
       </c>
     </row>
     <row r="27">
@@ -24527,10 +24527,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -24542,7 +24542,7 @@
         <v>76.18305849007386</v>
       </c>
       <c r="I27" t="n">
-        <v>8.854161465986799</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>53.28259432245176</v>
       </c>
       <c r="T27" t="n">
         <v>170.5265796494932</v>
@@ -24581,10 +24581,10 @@
         <v>207.8860038244843</v>
       </c>
       <c r="V27" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>87.98393492877662</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
@@ -24621,7 +24621,7 @@
         <v>145.2555273384648</v>
       </c>
       <c r="I28" t="n">
-        <v>102.4439188072657</v>
+        <v>38.55358439222932</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>78.82444768843243</v>
       </c>
       <c r="S28" t="n">
-        <v>183.7971125400421</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>229.1961435740429</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5312244651214</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>89.82510408970154</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24685,19 +24685,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>297.5518466786945</v>
       </c>
       <c r="E29" t="n">
-        <v>62.74253173682638</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
         <v>76.91033618752749</v>
       </c>
       <c r="G29" t="n">
-        <v>406.8576325470299</v>
+        <v>71.04247464923543</v>
       </c>
       <c r="H29" t="n">
-        <v>2.796918986702451</v>
+        <v>298.5829100630798</v>
       </c>
       <c r="I29" t="n">
         <v>53.16006395033763</v>
@@ -24733,16 +24733,16 @@
         <v>115.319892856474</v>
       </c>
       <c r="T29" t="n">
-        <v>211.7511202595727</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>253.0213226369596</v>
       </c>
       <c r="V29" t="n">
-        <v>2.870583305722278</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>31.4738867836009</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -24761,13 +24761,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C30" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24776,10 +24776,10 @@
         <v>117.6962971812177</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>76.18305849007386</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>8.854161465986799</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,10 +24809,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>111.9805936890401</v>
       </c>
       <c r="T30" t="n">
-        <v>170.5265796494932</v>
+        <v>108.2500706515835</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24824,10 +24824,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
-        <v>166.713675109684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>145.2555273384648</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>74.28955138204975</v>
+        <v>78.82444768843243</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>229.1961435740429</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5312244651214</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>92.66252878014836</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>60.6746403564884</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
@@ -24925,13 +24925,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>62.74253173682638</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>76.91033618752749</v>
       </c>
       <c r="G32" t="n">
-        <v>406.8576325470299</v>
+        <v>102.3274966889048</v>
       </c>
       <c r="H32" t="n">
         <v>298.5829100630798</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>115.319892856474</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>211.7511202595727</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>253.0213226369596</v>
@@ -24979,13 +24979,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>31.4738867836009</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>96.73981091222748</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -25001,16 +25001,16 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
-        <v>117.6962971812177</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>76.18305849007386</v>
@@ -25052,10 +25052,10 @@
         <v>170.5265796494932</v>
       </c>
       <c r="U33" t="n">
-        <v>17.14635493620981</v>
+        <v>0.8770794344915771</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="34">
@@ -25080,22 +25080,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>152.9379965949635</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5965581459434</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>102.4439188072657</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>229.1961435740429</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5312244651214</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>132.2046182344002</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25156,19 +25156,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>53.42858858430407</v>
+        <v>53.42858858430418</v>
       </c>
       <c r="D35" t="n">
-        <v>45.77155959770431</v>
+        <v>297.5518466786944</v>
       </c>
       <c r="E35" t="n">
-        <v>62.74253173682627</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>406.8576325470299</v>
+        <v>71.04247464923543</v>
       </c>
       <c r="H35" t="n">
         <v>298.5829100630798</v>
@@ -25207,10 +25207,10 @@
         <v>115.319892856474</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9864518201548</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.0213226369596</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
@@ -25222,7 +25222,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>56.71064409081038</v>
       </c>
     </row>
     <row r="36">
@@ -25235,13 +25235,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25286,16 +25286,16 @@
         <v>111.9805936890401</v>
       </c>
       <c r="T36" t="n">
-        <v>154.3479593576173</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>207.8860038244843</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>227.816073408046</v>
+        <v>177.0322447696837</v>
       </c>
       <c r="X36" t="n">
         <v>187.4140068734885</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>45.064649831186</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
         <v>154.0032240193895</v>
@@ -25329,10 +25329,10 @@
         <v>165.5965581459434</v>
       </c>
       <c r="H37" t="n">
-        <v>104.6332106049651</v>
+        <v>145.2555273384648</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>102.4439188072657</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>78.82444768843243</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>183.7971125400421</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>229.1961435740429</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5312244651214</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>60.67464035648834</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
@@ -25399,13 +25399,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>62.74253173682638</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>76.91033618752749</v>
+        <v>76.91033618752743</v>
       </c>
       <c r="G38" t="n">
-        <v>406.8576325470299</v>
+        <v>322.8227617302252</v>
       </c>
       <c r="H38" t="n">
         <v>298.5829100630798</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>115.319892856474</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.0213226369596</v>
       </c>
       <c r="V38" t="n">
-        <v>287.1769279823513</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>49.74292111847916</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -25469,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>117.6962971812177</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>8.854161465986799</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,22 +25520,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>111.9805936890401</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>170.5265796494932</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>207.8860038244843</v>
+        <v>76.41052753275613</v>
       </c>
       <c r="V39" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>178.7368583770154</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>158.2214056807364</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5965581459434</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>145.2555273384648</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>102.4439188072657</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>78.82444768843243</v>
       </c>
       <c r="S40" t="n">
         <v>183.7971125400421</v>
@@ -25614,7 +25614,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>170.6836781951216</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25636,16 +25636,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>62.74253173682638</v>
+        <v>65.53945072352883</v>
       </c>
       <c r="F41" t="n">
         <v>76.91033618752749</v>
       </c>
       <c r="G41" t="n">
-        <v>111.0716414706526</v>
+        <v>71.04247464923543</v>
       </c>
       <c r="H41" t="n">
-        <v>298.5829100630798</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>53.16006395033763</v>
@@ -25693,7 +25693,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>49.74292111847922</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -25709,10 +25709,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>135.0820259802211</v>
@@ -25721,7 +25721,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
-        <v>117.6962971812177</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>76.18305849007386</v>
@@ -25757,13 +25757,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>111.9805936890401</v>
+        <v>39.04962850220492</v>
       </c>
       <c r="T42" t="n">
         <v>170.5265796494932</v>
       </c>
       <c r="U42" t="n">
-        <v>17.14635493620981</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>37.32853909596616</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>145.2555273384648</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>102.4439188072657</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>78.82444768843243</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>104.2495991517109</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>229.1961435740429</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>60.6746403564884</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>45.77155959770442</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>62.74253173682638</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>369.9608256459042</v>
       </c>
       <c r="G44" t="n">
-        <v>406.8576325470299</v>
+        <v>71.04247464923543</v>
       </c>
       <c r="H44" t="n">
         <v>298.5829100630798</v>
@@ -25921,19 +25921,19 @@
         <v>211.7511202595727</v>
       </c>
       <c r="U44" t="n">
-        <v>253.0213226369596</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>2.870583305722278</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>31.4738867836009</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.73981091222754</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -25946,10 +25946,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25958,10 +25958,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>117.6962971812177</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>76.18305849007386</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>111.9805936890401</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>154.3479593576178</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>207.8860038244843</v>
+        <v>52.69443401240542</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>154.9523697800716</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>145.2555273384648</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>102.4439188072657</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>78.82444768843243</v>
       </c>
       <c r="S46" t="n">
-        <v>183.7971125400421</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5312244651214</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>255.7830056974176</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>417983.5980738842</v>
+        <v>417983.5980738841</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>417983.5980738844</v>
+        <v>417983.5980738842</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>417983.5980738843</v>
+        <v>417983.5980738842</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>417983.5980738843</v>
+        <v>417983.5980738842</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>417983.5980738844</v>
+        <v>417983.5980738843</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>417983.5980738843</v>
+        <v>417983.5980738842</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>417983.5980738843</v>
+        <v>417983.5980738844</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>417983.5980738843</v>
+        <v>417983.5980738842</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>467737.9754182643</v>
+      </c>
+      <c r="C2" t="n">
         <v>467737.9754182642</v>
       </c>
-      <c r="C2" t="n">
-        <v>467737.9754182643</v>
-      </c>
       <c r="D2" t="n">
-        <v>467769.7176794188</v>
+        <v>467769.717679419</v>
       </c>
       <c r="E2" t="n">
-        <v>236891.5949607413</v>
+        <v>236891.5949607414</v>
       </c>
       <c r="F2" t="n">
         <v>236891.5949607413</v>
       </c>
       <c r="G2" t="n">
-        <v>236891.5949607414</v>
+        <v>236891.5949607413</v>
       </c>
       <c r="H2" t="n">
         <v>236891.5949607414</v>
@@ -26349,13 +26349,13 @@
         <v>236891.5949607413</v>
       </c>
       <c r="N2" t="n">
-        <v>236891.5949607413</v>
+        <v>236891.5949607414</v>
       </c>
       <c r="O2" t="n">
         <v>236891.5949607413</v>
       </c>
       <c r="P2" t="n">
-        <v>236891.5949607414</v>
+        <v>236891.5949607413</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>130694.7925215629</v>
       </c>
       <c r="E3" t="n">
-        <v>412027.5189573162</v>
+        <v>412027.5189573164</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>349465.8546240861</v>
       </c>
       <c r="E4" t="n">
-        <v>17381.33230176515</v>
+        <v>17381.33230176514</v>
       </c>
       <c r="F4" t="n">
-        <v>17381.33230176515</v>
+        <v>17381.33230176513</v>
       </c>
       <c r="G4" t="n">
-        <v>17381.33230176514</v>
+        <v>17381.33230176513</v>
       </c>
       <c r="H4" t="n">
-        <v>17381.33230176515</v>
+        <v>17381.33230176513</v>
       </c>
       <c r="I4" t="n">
-        <v>17381.33230176514</v>
+        <v>17381.33230176513</v>
       </c>
       <c r="J4" t="n">
-        <v>17381.33230176515</v>
+        <v>17381.33230176513</v>
       </c>
       <c r="K4" t="n">
         <v>17381.33230176513</v>
@@ -26450,10 +26450,10 @@
         <v>17381.33230176513</v>
       </c>
       <c r="M4" t="n">
-        <v>17381.33230176515</v>
+        <v>17381.33230176513</v>
       </c>
       <c r="N4" t="n">
-        <v>17381.33230176513</v>
+        <v>17381.33230176514</v>
       </c>
       <c r="O4" t="n">
         <v>17381.33230176513</v>
@@ -26478,7 +26478,7 @@
         <v>36954.43314024534</v>
       </c>
       <c r="E5" t="n">
-        <v>32203.88383393312</v>
+        <v>32203.88383393313</v>
       </c>
       <c r="F5" t="n">
         <v>32203.88383393312</v>
@@ -26487,13 +26487,13 @@
         <v>32203.88383393312</v>
       </c>
       <c r="H5" t="n">
-        <v>32203.88383393313</v>
+        <v>32203.88383393312</v>
       </c>
       <c r="I5" t="n">
         <v>32203.88383393312</v>
       </c>
       <c r="J5" t="n">
-        <v>32203.88383393313</v>
+        <v>32203.88383393312</v>
       </c>
       <c r="K5" t="n">
         <v>32203.88383393312</v>
@@ -26502,7 +26502,7 @@
         <v>32203.88383393312</v>
       </c>
       <c r="M5" t="n">
-        <v>32203.88383393313</v>
+        <v>32203.88383393312</v>
       </c>
       <c r="N5" t="n">
         <v>32203.88383393312</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41538.40819257172</v>
+        <v>41534.07862478541</v>
       </c>
       <c r="C6" t="n">
-        <v>41538.40819257178</v>
+        <v>41534.0786247853</v>
       </c>
       <c r="D6" t="n">
-        <v>-49345.36260647548</v>
+        <v>-49349.57008864183</v>
       </c>
       <c r="E6" t="n">
-        <v>-224721.1401322732</v>
+        <v>-225613.3403941269</v>
       </c>
       <c r="F6" t="n">
-        <v>187306.3788250431</v>
+        <v>186414.1785631893</v>
       </c>
       <c r="G6" t="n">
-        <v>187306.3788250431</v>
+        <v>186414.1785631893</v>
       </c>
       <c r="H6" t="n">
-        <v>187306.3788250431</v>
+        <v>186414.1785631893</v>
       </c>
       <c r="I6" t="n">
-        <v>187306.378825043</v>
+        <v>186414.1785631892</v>
       </c>
       <c r="J6" t="n">
-        <v>187306.3788250431</v>
+        <v>186414.1785631893</v>
       </c>
       <c r="K6" t="n">
-        <v>187306.3788250431</v>
+        <v>186414.1785631893</v>
       </c>
       <c r="L6" t="n">
-        <v>187306.378825043</v>
+        <v>186414.1785631893</v>
       </c>
       <c r="M6" t="n">
-        <v>103619.8982162811</v>
+        <v>102727.6979544272</v>
       </c>
       <c r="N6" t="n">
-        <v>187306.378825043</v>
+        <v>186414.1785631893</v>
       </c>
       <c r="O6" t="n">
-        <v>187306.378825043</v>
+        <v>186414.1785631893</v>
       </c>
       <c r="P6" t="n">
-        <v>187306.3788250431</v>
+        <v>186414.1785631893</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>152.6070247818962</v>
       </c>
       <c r="E3" t="n">
-        <v>540.6569831994134</v>
+        <v>540.6569831994135</v>
       </c>
       <c r="F3" t="n">
-        <v>540.6569831994134</v>
+        <v>540.6569831994135</v>
       </c>
       <c r="G3" t="n">
         <v>540.6569831994135</v>
@@ -26801,19 +26801,19 @@
         <v>335.8151578977946</v>
       </c>
       <c r="F4" t="n">
-        <v>335.8151578977946</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="G4" t="n">
-        <v>335.8151578977946</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="H4" t="n">
-        <v>335.8151578977946</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="I4" t="n">
-        <v>335.8151578977946</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="J4" t="n">
-        <v>335.8151578977946</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="K4" t="n">
         <v>335.8151578977945</v>
@@ -26822,10 +26822,10 @@
         <v>335.8151578977945</v>
       </c>
       <c r="M4" t="n">
+        <v>335.8151578977945</v>
+      </c>
+      <c r="N4" t="n">
         <v>335.8151578977946</v>
-      </c>
-      <c r="N4" t="n">
-        <v>335.8151578977945</v>
       </c>
       <c r="O4" t="n">
         <v>335.8151578977945</v>
@@ -26968,7 +26968,7 @@
         <v>152.6070247818962</v>
       </c>
       <c r="E3" t="n">
-        <v>388.0499584175171</v>
+        <v>388.0499584175172</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27952,7 +27952,7 @@
         <v>84.24424724889813</v>
       </c>
       <c r="I9" t="n">
-        <v>37.59182348086898</v>
+        <v>37.59182348086897</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -31515,22 +31515,22 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6134955770126477</v>
+        <v>0.6134955770126478</v>
       </c>
       <c r="H8" t="n">
-        <v>6.28296157808078</v>
+        <v>6.282961578080781</v>
       </c>
       <c r="I8" t="n">
-        <v>23.65178823278012</v>
+        <v>23.65178823278013</v>
       </c>
       <c r="J8" t="n">
-        <v>52.06967022947725</v>
+        <v>52.06967022947726</v>
       </c>
       <c r="K8" t="n">
         <v>78.03893800442265</v>
       </c>
       <c r="L8" t="n">
-        <v>96.81420326942349</v>
+        <v>96.8142032694235</v>
       </c>
       <c r="M8" t="n">
         <v>107.7244552371222</v>
@@ -31542,7 +31542,7 @@
         <v>103.3671029013898</v>
       </c>
       <c r="P8" t="n">
-        <v>88.22143084389008</v>
+        <v>88.22143084389009</v>
       </c>
       <c r="Q8" t="n">
         <v>66.25062049212461</v>
@@ -31606,16 +31606,16 @@
         <v>31.01233887572479</v>
       </c>
       <c r="K9" t="n">
-        <v>53.00502671127428</v>
+        <v>53.00502671127429</v>
       </c>
       <c r="L9" t="n">
         <v>71.27179963988466</v>
       </c>
       <c r="M9" t="n">
-        <v>83.17082850613343</v>
+        <v>83.17082850613345</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416664</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>78.09880446550495</v>
@@ -31630,7 +31630,7 @@
         <v>20.38023625294834</v>
       </c>
       <c r="S9" t="n">
-        <v>6.097082546710661</v>
+        <v>6.097082546710663</v>
       </c>
       <c r="T9" t="n">
         <v>1.323074111080779</v>
@@ -31688,7 +31688,7 @@
         <v>31.97242256905956</v>
       </c>
       <c r="L10" t="n">
-        <v>40.91369316857592</v>
+        <v>40.91369316857593</v>
       </c>
       <c r="M10" t="n">
         <v>43.13775292318419</v>
@@ -31697,10 +31697,10 @@
         <v>42.11203357628952</v>
       </c>
       <c r="O10" t="n">
-        <v>38.8972790378512</v>
+        <v>38.89727903785121</v>
       </c>
       <c r="P10" t="n">
-        <v>33.28334192948109</v>
+        <v>33.2833419294811</v>
       </c>
       <c r="Q10" t="n">
         <v>23.04366074206633</v>
@@ -31709,7 +31709,7 @@
         <v>12.3736777798567</v>
       </c>
       <c r="S10" t="n">
-        <v>4.795863385358933</v>
+        <v>4.795863385358934</v>
       </c>
       <c r="T10" t="n">
         <v>1.175824617171987</v>
@@ -31752,22 +31752,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.173495409846886</v>
+        <v>2.173495409846887</v>
       </c>
       <c r="H11" t="n">
         <v>22.25930986609443</v>
       </c>
       <c r="I11" t="n">
-        <v>83.79368178812217</v>
+        <v>83.79368178812219</v>
       </c>
       <c r="J11" t="n">
-        <v>184.4727060414923</v>
+        <v>184.4727060414924</v>
       </c>
       <c r="K11" t="n">
-        <v>276.4767667403111</v>
+        <v>276.4767667403112</v>
       </c>
       <c r="L11" t="n">
-        <v>342.9938768894128</v>
+        <v>342.9938768894129</v>
       </c>
       <c r="M11" t="n">
         <v>381.6467758842774</v>
@@ -31779,10 +31779,10 @@
         <v>366.2095247358399</v>
       </c>
       <c r="P11" t="n">
-        <v>312.5513568052448</v>
+        <v>312.5513568052449</v>
       </c>
       <c r="Q11" t="n">
-        <v>234.7130524401031</v>
+        <v>234.7130524401032</v>
       </c>
       <c r="R11" t="n">
         <v>136.5308310387946</v>
@@ -31791,7 +31791,7 @@
         <v>49.52852665188598</v>
       </c>
       <c r="T11" t="n">
-        <v>9.514476156604751</v>
+        <v>9.514476156604752</v>
       </c>
       <c r="U11" t="n">
         <v>0.1738796327877509</v>
@@ -31837,7 +31837,7 @@
         <v>11.23138374533121</v>
       </c>
       <c r="I12" t="n">
-        <v>40.03921998222071</v>
+        <v>40.03921998222072</v>
       </c>
       <c r="J12" t="n">
         <v>109.8706799537601</v>
@@ -31846,34 +31846,34 @@
         <v>187.7864919854038</v>
       </c>
       <c r="L12" t="n">
-        <v>252.5021127668581</v>
+        <v>252.5021127668582</v>
       </c>
       <c r="M12" t="n">
-        <v>294.6580558436802</v>
+        <v>294.6580558436803</v>
       </c>
       <c r="N12" t="n">
-        <v>302.456777799453</v>
+        <v>302.4567777994531</v>
       </c>
       <c r="O12" t="n">
-        <v>276.6888619586658</v>
+        <v>276.6888619586659</v>
       </c>
       <c r="P12" t="n">
-        <v>222.067205042793</v>
+        <v>222.0672050427931</v>
       </c>
       <c r="Q12" t="n">
         <v>148.4460456512805</v>
       </c>
       <c r="R12" t="n">
-        <v>72.20320994500848</v>
+        <v>72.2032099450085</v>
       </c>
       <c r="S12" t="n">
         <v>21.60077664008976</v>
       </c>
       <c r="T12" t="n">
-        <v>4.687394033587365</v>
+        <v>4.687394033587366</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07650806366029438</v>
+        <v>0.07650806366029439</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9749552156054995</v>
+        <v>0.9749552156054997</v>
       </c>
       <c r="H13" t="n">
-        <v>8.668238189656174</v>
+        <v>8.668238189656176</v>
       </c>
       <c r="I13" t="n">
-        <v>29.31956230202721</v>
+        <v>29.31956230202722</v>
       </c>
       <c r="J13" t="n">
-        <v>68.9293337433088</v>
+        <v>68.92933374330882</v>
       </c>
       <c r="K13" t="n">
         <v>113.2720695948935</v>
@@ -31931,28 +31931,28 @@
         <v>152.8286616607784</v>
       </c>
       <c r="N13" t="n">
-        <v>149.1947376753398</v>
+        <v>149.1947376753399</v>
       </c>
       <c r="O13" t="n">
-        <v>137.805488111221</v>
+        <v>137.8054881112211</v>
       </c>
       <c r="P13" t="n">
         <v>117.9164017128687</v>
       </c>
       <c r="Q13" t="n">
-        <v>81.63920446311143</v>
+        <v>81.63920446311144</v>
       </c>
       <c r="R13" t="n">
-        <v>43.83753178531636</v>
+        <v>43.83753178531637</v>
       </c>
       <c r="S13" t="n">
         <v>16.99081043923402</v>
       </c>
       <c r="T13" t="n">
-        <v>4.165717739405315</v>
+        <v>4.165717739405316</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05317937539666367</v>
+        <v>0.05317937539666368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,22 +31989,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.173495409846886</v>
+        <v>2.173495409846887</v>
       </c>
       <c r="H14" t="n">
         <v>22.25930986609443</v>
       </c>
       <c r="I14" t="n">
-        <v>83.79368178812217</v>
+        <v>83.79368178812219</v>
       </c>
       <c r="J14" t="n">
-        <v>184.4727060414923</v>
+        <v>184.4727060414924</v>
       </c>
       <c r="K14" t="n">
-        <v>276.4767667403111</v>
+        <v>276.4767667403112</v>
       </c>
       <c r="L14" t="n">
-        <v>342.9938768894128</v>
+        <v>342.9938768894129</v>
       </c>
       <c r="M14" t="n">
         <v>381.6467758842774</v>
@@ -32016,10 +32016,10 @@
         <v>366.2095247358399</v>
       </c>
       <c r="P14" t="n">
-        <v>312.5513568052448</v>
+        <v>312.5513568052449</v>
       </c>
       <c r="Q14" t="n">
-        <v>234.7130524401031</v>
+        <v>234.7130524401032</v>
       </c>
       <c r="R14" t="n">
         <v>136.5308310387946</v>
@@ -32028,7 +32028,7 @@
         <v>49.52852665188598</v>
       </c>
       <c r="T14" t="n">
-        <v>9.514476156604751</v>
+        <v>9.514476156604752</v>
       </c>
       <c r="U14" t="n">
         <v>0.1738796327877509</v>
@@ -32074,7 +32074,7 @@
         <v>11.23138374533121</v>
       </c>
       <c r="I15" t="n">
-        <v>40.03921998222071</v>
+        <v>40.03921998222072</v>
       </c>
       <c r="J15" t="n">
         <v>109.8706799537601</v>
@@ -32083,34 +32083,34 @@
         <v>187.7864919854038</v>
       </c>
       <c r="L15" t="n">
-        <v>252.5021127668581</v>
+        <v>252.5021127668582</v>
       </c>
       <c r="M15" t="n">
-        <v>294.6580558436802</v>
+        <v>294.6580558436803</v>
       </c>
       <c r="N15" t="n">
-        <v>302.456777799453</v>
+        <v>302.4567777994531</v>
       </c>
       <c r="O15" t="n">
-        <v>276.6888619586658</v>
+        <v>276.6888619586659</v>
       </c>
       <c r="P15" t="n">
-        <v>222.067205042793</v>
+        <v>222.0672050427931</v>
       </c>
       <c r="Q15" t="n">
         <v>148.4460456512805</v>
       </c>
       <c r="R15" t="n">
-        <v>72.20320994500848</v>
+        <v>72.2032099450085</v>
       </c>
       <c r="S15" t="n">
         <v>21.60077664008976</v>
       </c>
       <c r="T15" t="n">
-        <v>4.687394033587365</v>
+        <v>4.687394033587366</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07650806366029438</v>
+        <v>0.07650806366029439</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9749552156054995</v>
+        <v>0.9749552156054997</v>
       </c>
       <c r="H16" t="n">
-        <v>8.668238189656174</v>
+        <v>8.668238189656176</v>
       </c>
       <c r="I16" t="n">
-        <v>29.31956230202721</v>
+        <v>29.31956230202722</v>
       </c>
       <c r="J16" t="n">
-        <v>68.9293337433088</v>
+        <v>68.92933374330882</v>
       </c>
       <c r="K16" t="n">
         <v>113.2720695948935</v>
@@ -32168,28 +32168,28 @@
         <v>152.8286616607784</v>
       </c>
       <c r="N16" t="n">
-        <v>149.1947376753398</v>
+        <v>149.1947376753399</v>
       </c>
       <c r="O16" t="n">
-        <v>137.805488111221</v>
+        <v>137.8054881112211</v>
       </c>
       <c r="P16" t="n">
         <v>117.9164017128687</v>
       </c>
       <c r="Q16" t="n">
-        <v>81.63920446311143</v>
+        <v>81.63920446311144</v>
       </c>
       <c r="R16" t="n">
-        <v>43.83753178531636</v>
+        <v>43.83753178531637</v>
       </c>
       <c r="S16" t="n">
         <v>16.99081043923402</v>
       </c>
       <c r="T16" t="n">
-        <v>4.165717739405315</v>
+        <v>4.165717739405316</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05317937539666367</v>
+        <v>0.05317937539666368</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34368,7 +34368,7 @@
         <v>83.79368178812219</v>
       </c>
       <c r="J44" t="n">
-        <v>184.4727060414922</v>
+        <v>184.4727060414924</v>
       </c>
       <c r="K44" t="n">
         <v>276.4767667403112</v>
@@ -34389,7 +34389,7 @@
         <v>312.5513568052449</v>
       </c>
       <c r="Q44" t="n">
-        <v>234.7130524401032</v>
+        <v>234.7130524401029</v>
       </c>
       <c r="R44" t="n">
         <v>136.5308310387946</v>
@@ -35409,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>66.79286809914623</v>
+        <v>66.79286809914629</v>
       </c>
       <c r="K11" t="n">
-        <v>133.4183635610737</v>
+        <v>133.4183635610738</v>
       </c>
       <c r="L11" t="n">
-        <v>189.7457071589211</v>
+        <v>189.7457071589212</v>
       </c>
       <c r="M11" t="n">
-        <v>231.9217242865501</v>
+        <v>231.9217242865502</v>
       </c>
       <c r="N11" t="n">
         <v>238.7037283797208</v>
@@ -35427,10 +35427,10 @@
         <v>216.6456873117435</v>
       </c>
       <c r="P11" t="n">
-        <v>162.2499095643196</v>
+        <v>162.2499095643197</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.21435402171093</v>
+        <v>90.21435402171099</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>27.42622262042671</v>
+        <v>27.42622262042673</v>
       </c>
       <c r="K12" t="n">
-        <v>98.18955665207046</v>
+        <v>98.18955665207049</v>
       </c>
       <c r="L12" t="n">
-        <v>162.4417659099399</v>
+        <v>162.44176590994</v>
       </c>
       <c r="M12" t="n">
-        <v>202.2709337943683</v>
+        <v>202.2709337943684</v>
       </c>
       <c r="N12" t="n">
-        <v>262.5816355156493</v>
+        <v>217.0846649452864</v>
       </c>
       <c r="O12" t="n">
-        <v>335.8151578977946</v>
+        <v>184.001303069777</v>
       </c>
       <c r="P12" t="n">
-        <v>134.9838402234784</v>
+        <v>332.2946656218589</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.45789249536647</v>
+        <v>57.45789249536649</v>
       </c>
       <c r="R12" t="n">
-        <v>48.52533727409238</v>
+        <v>48.52533727409239</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>38.85484627114975</v>
       </c>
       <c r="K13" t="n">
-        <v>195.9337272817034</v>
+        <v>195.9337272817035</v>
       </c>
       <c r="L13" t="n">
-        <v>57.27421129003457</v>
+        <v>94.30690215301748</v>
       </c>
       <c r="M13" t="n">
-        <v>326.6067265586635</v>
+        <v>335.8151578977946</v>
       </c>
       <c r="N13" t="n">
-        <v>334.2347720502986</v>
+        <v>334.2347720502987</v>
       </c>
       <c r="O13" t="n">
         <v>302.1537376482999</v>
       </c>
       <c r="P13" t="n">
-        <v>28.39319908092278</v>
+        <v>28.39319908092281</v>
       </c>
       <c r="Q13" t="n">
-        <v>85.09596847326391</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>66.79286809914623</v>
+        <v>66.79286809914629</v>
       </c>
       <c r="K14" t="n">
-        <v>133.4183635610737</v>
+        <v>133.4183635610738</v>
       </c>
       <c r="L14" t="n">
-        <v>189.7457071589211</v>
+        <v>189.7457071589212</v>
       </c>
       <c r="M14" t="n">
-        <v>231.9217242865501</v>
+        <v>231.9217242865502</v>
       </c>
       <c r="N14" t="n">
         <v>238.7037283797208</v>
@@ -35664,10 +35664,10 @@
         <v>216.6456873117435</v>
       </c>
       <c r="P14" t="n">
-        <v>162.2499095643196</v>
+        <v>162.2499095643197</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.21435402171093</v>
+        <v>90.21435402171099</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36365603095268</v>
+        <v>27.42622262042673</v>
       </c>
       <c r="K15" t="n">
-        <v>98.18955665207046</v>
+        <v>98.18955665207049</v>
       </c>
       <c r="L15" t="n">
-        <v>335.8151578977946</v>
+        <v>162.44176590994</v>
       </c>
       <c r="M15" t="n">
-        <v>202.2709337943683</v>
+        <v>202.2709337943684</v>
       </c>
       <c r="N15" t="n">
-        <v>217.0846649452863</v>
+        <v>217.0846649452864</v>
       </c>
       <c r="O15" t="n">
         <v>184.001303069777</v>
@@ -35746,10 +35746,10 @@
         <v>134.9838402234784</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.45789249536647</v>
+        <v>303.2940551678389</v>
       </c>
       <c r="R15" t="n">
-        <v>48.52533727409238</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>38.85484627114975</v>
       </c>
       <c r="K16" t="n">
-        <v>195.9337272817034</v>
+        <v>195.9337272817035</v>
       </c>
       <c r="L16" t="n">
-        <v>57.27421129003457</v>
+        <v>310.7347456948595</v>
       </c>
       <c r="M16" t="n">
-        <v>335.8151578977946</v>
+        <v>91.71674539014472</v>
       </c>
       <c r="N16" t="n">
-        <v>334.2347720502986</v>
+        <v>66.19913377293832</v>
       </c>
       <c r="O16" t="n">
-        <v>292.9453063091688</v>
+        <v>302.1537376482999</v>
       </c>
       <c r="P16" t="n">
-        <v>28.39319908092278</v>
+        <v>239.0034378508269</v>
       </c>
       <c r="Q16" t="n">
-        <v>85.09596847326391</v>
+        <v>85.09596847326392</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>106.0065550662989</v>
+        <v>27.42622262042673</v>
       </c>
       <c r="K18" t="n">
         <v>98.18955665207049</v>
@@ -35974,7 +35974,7 @@
         <v>202.2709337943684</v>
       </c>
       <c r="N18" t="n">
-        <v>335.8151578977946</v>
+        <v>217.0846649452864</v>
       </c>
       <c r="O18" t="n">
         <v>184.001303069777</v>
@@ -35983,10 +35983,10 @@
         <v>134.9838402234784</v>
       </c>
       <c r="Q18" t="n">
-        <v>57.45789249536649</v>
+        <v>303.2940551678389</v>
       </c>
       <c r="R18" t="n">
-        <v>48.52533727409239</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>38.85484627114975</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>195.9337272817035</v>
+        <v>29.41345178404549</v>
       </c>
       <c r="L19" t="n">
         <v>310.7347456948595</v>
       </c>
       <c r="M19" t="n">
-        <v>335.8151578977946</v>
+        <v>324.7624361247599</v>
       </c>
       <c r="N19" t="n">
-        <v>66.19913377293832</v>
+        <v>334.2347720502987</v>
       </c>
       <c r="O19" t="n">
-        <v>58.0553251406502</v>
+        <v>302.1537376482999</v>
       </c>
       <c r="P19" t="n">
-        <v>239.0034378508269</v>
+        <v>28.39319908092281</v>
       </c>
       <c r="Q19" t="n">
-        <v>85.09596847326392</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36208,7 +36208,7 @@
         <v>162.44176590994</v>
       </c>
       <c r="M21" t="n">
-        <v>335.8151578977946</v>
+        <v>202.2709337943684</v>
       </c>
       <c r="N21" t="n">
         <v>217.0846649452864</v>
@@ -36220,10 +36220,10 @@
         <v>134.9838402234784</v>
       </c>
       <c r="Q21" t="n">
-        <v>121.2244937903208</v>
+        <v>303.2940551678389</v>
       </c>
       <c r="R21" t="n">
-        <v>48.52533727409239</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,10 +36284,10 @@
         <v>29.41345178404549</v>
       </c>
       <c r="L22" t="n">
-        <v>299.6820239218252</v>
+        <v>310.7347456948595</v>
       </c>
       <c r="M22" t="n">
-        <v>335.8151578977946</v>
+        <v>324.7624361247599</v>
       </c>
       <c r="N22" t="n">
         <v>334.2347720502987</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>224.1282377514645</v>
+        <v>27.42622262042673</v>
       </c>
       <c r="K24" t="n">
-        <v>98.79836691941321</v>
+        <v>98.18955665207049</v>
       </c>
       <c r="L24" t="n">
         <v>162.44176590994</v>
@@ -36457,10 +36457,10 @@
         <v>134.9838402234784</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.45789249536649</v>
+        <v>303.2940551678389</v>
       </c>
       <c r="R24" t="n">
-        <v>48.52533727409239</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>38.85484627114975</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>29.41345178404549</v>
@@ -36524,13 +36524,13 @@
         <v>310.7347456948595</v>
       </c>
       <c r="M25" t="n">
-        <v>335.8151578977946</v>
+        <v>324.7624361247599</v>
       </c>
       <c r="N25" t="n">
         <v>334.2347720502987</v>
       </c>
       <c r="O25" t="n">
-        <v>252.2461696041158</v>
+        <v>302.1537376482999</v>
       </c>
       <c r="P25" t="n">
         <v>28.39319908092281</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>35.63678404717552</v>
+        <v>27.42622262042673</v>
       </c>
       <c r="K27" t="n">
-        <v>335.8151578977946</v>
+        <v>98.18955665207049</v>
       </c>
       <c r="L27" t="n">
         <v>162.44176590994</v>
@@ -36694,7 +36694,7 @@
         <v>134.9838402234784</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.45789249536649</v>
+        <v>303.2940551678389</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36761,7 +36761,7 @@
         <v>310.7347456948595</v>
       </c>
       <c r="M28" t="n">
-        <v>324.7624361247604</v>
+        <v>324.7624361247599</v>
       </c>
       <c r="N28" t="n">
         <v>334.2347720502987</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>154.5318923403911</v>
+        <v>27.42622262042673</v>
       </c>
       <c r="K30" t="n">
         <v>98.18955665207049</v>
@@ -36922,7 +36922,7 @@
         <v>202.2709337943684</v>
       </c>
       <c r="N30" t="n">
-        <v>335.8151578977945</v>
+        <v>217.0846649452864</v>
       </c>
       <c r="O30" t="n">
         <v>184.001303069777</v>
@@ -36931,7 +36931,7 @@
         <v>134.9838402234784</v>
       </c>
       <c r="Q30" t="n">
-        <v>57.45789249536649</v>
+        <v>303.2940551678389</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>224.1282377514645</v>
       </c>
       <c r="K33" t="n">
-        <v>98.79836691941298</v>
+        <v>98.18955665207049</v>
       </c>
       <c r="L33" t="n">
         <v>162.44176590994</v>
@@ -37165,7 +37165,7 @@
         <v>184.001303069777</v>
       </c>
       <c r="P33" t="n">
-        <v>134.9838402234784</v>
+        <v>135.5926504908207</v>
       </c>
       <c r="Q33" t="n">
         <v>57.45789249536649</v>
@@ -37238,16 +37238,16 @@
         <v>335.8151578977945</v>
       </c>
       <c r="N34" t="n">
-        <v>76.44572079606499</v>
+        <v>334.2347720502987</v>
       </c>
       <c r="O34" t="n">
-        <v>47.80873811752325</v>
+        <v>85.72589410645759</v>
       </c>
       <c r="P34" t="n">
-        <v>239.0034378508269</v>
+        <v>28.39319908092281</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.09596847326392</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>134.9838402234784</v>
       </c>
       <c r="Q36" t="n">
-        <v>58.06670276270926</v>
+        <v>58.0667027627088</v>
       </c>
       <c r="R36" t="n">
         <v>48.52533727409239</v>
@@ -37472,7 +37472,7 @@
         <v>310.7347456948595</v>
       </c>
       <c r="M37" t="n">
-        <v>324.7624361247604</v>
+        <v>324.7624361247599</v>
       </c>
       <c r="N37" t="n">
         <v>334.2347720502987</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>106.0065550662987</v>
+        <v>27.42622262042673</v>
       </c>
       <c r="K39" t="n">
         <v>98.18955665207049</v>
@@ -37633,7 +37633,7 @@
         <v>202.2709337943684</v>
       </c>
       <c r="N39" t="n">
-        <v>335.8151578977945</v>
+        <v>217.0846649452864</v>
       </c>
       <c r="O39" t="n">
         <v>184.001303069777</v>
@@ -37642,10 +37642,10 @@
         <v>134.9838402234784</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.45789249536649</v>
+        <v>303.2940551678391</v>
       </c>
       <c r="R39" t="n">
-        <v>48.52533727409239</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>38.85484627114975</v>
       </c>
       <c r="K40" t="n">
-        <v>29.41345178404549</v>
+        <v>195.9337272817035</v>
       </c>
       <c r="L40" t="n">
-        <v>277.2640724816162</v>
+        <v>310.7347456948595</v>
       </c>
       <c r="M40" t="n">
-        <v>62.52690209483517</v>
+        <v>335.8151578977946</v>
       </c>
       <c r="N40" t="n">
         <v>334.2347720502987</v>
       </c>
       <c r="O40" t="n">
-        <v>302.1537376482999</v>
+        <v>85.72589410645782</v>
       </c>
       <c r="P40" t="n">
-        <v>239.0034378508269</v>
+        <v>28.39319908092281</v>
       </c>
       <c r="Q40" t="n">
-        <v>85.09596847326392</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37867,7 +37867,7 @@
         <v>162.44176590994</v>
       </c>
       <c r="M42" t="n">
-        <v>202.8797440617108</v>
+        <v>202.2709337943684</v>
       </c>
       <c r="N42" t="n">
         <v>217.0846649452864</v>
@@ -37879,7 +37879,7 @@
         <v>134.9838402234784</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.45789249536649</v>
+        <v>58.0667027627088</v>
       </c>
       <c r="R42" t="n">
         <v>48.52533727409239</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>38.85484627114975</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>29.41345178404549</v>
       </c>
       <c r="L43" t="n">
-        <v>175.7312091774111</v>
+        <v>310.7347456948595</v>
       </c>
       <c r="M43" t="n">
-        <v>335.8151578977945</v>
+        <v>324.7624361247599</v>
       </c>
       <c r="N43" t="n">
         <v>334.2347720502987</v>
@@ -37958,7 +37958,7 @@
         <v>28.39319908092281</v>
       </c>
       <c r="Q43" t="n">
-        <v>85.09596847326392</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>66.79286809914608</v>
+        <v>66.79286809914629</v>
       </c>
       <c r="K44" t="n">
         <v>133.4183635610738</v>
@@ -38037,7 +38037,7 @@
         <v>162.2499095643197</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.21435402171099</v>
+        <v>90.2143540217107</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>27.42622262042673</v>
+        <v>224.1282377514645</v>
       </c>
       <c r="K45" t="n">
-        <v>98.18955665207049</v>
+        <v>98.79836691941298</v>
       </c>
       <c r="L45" t="n">
-        <v>335.8151578977945</v>
+        <v>162.44176590994</v>
       </c>
       <c r="M45" t="n">
-        <v>226.208367204894</v>
+        <v>202.2709337943684</v>
       </c>
       <c r="N45" t="n">
         <v>217.0846649452864</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>38.85484627114975</v>
       </c>
       <c r="K46" t="n">
-        <v>29.41345178404549</v>
+        <v>195.9337272817035</v>
       </c>
       <c r="L46" t="n">
-        <v>299.6820239218249</v>
+        <v>310.7347456948595</v>
       </c>
       <c r="M46" t="n">
         <v>335.8151578977945</v>
       </c>
       <c r="N46" t="n">
-        <v>334.2347720502987</v>
+        <v>76.44572079606499</v>
       </c>
       <c r="O46" t="n">
-        <v>302.1537376482999</v>
+        <v>47.80873811752325</v>
       </c>
       <c r="P46" t="n">
-        <v>28.39319908092281</v>
+        <v>239.0034378508269</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>85.09596847326392</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
